--- a/lib/PHPExcel/templates/OT_Loa.xlsx
+++ b/lib/PHPExcel/templates/OT_Loa.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC91BB0-2B2E-46F2-81F2-A0ACFEF6B460}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="12810"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OT Loa" sheetId="1" r:id="rId1"/>
+    <sheet name="OT" sheetId="2" r:id="rId1"/>
+    <sheet name="OT Loa" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="choix">'OT Loa'!$AA$1:$AA$2</definedName>
     <definedName name="Conditions">[1]Listes!$G$3:$G$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'OT Loa'!$A:$C,'OT Loa'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">OT!$1:$27</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'OT Loa'!$A:$C,'OT Loa'!$1:$7</definedName>
     <definedName name="Statut2">[2]Listes!$B$3:$B$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OT!$A$1:$P$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="78">
   <si>
     <t>Type éprouvette</t>
   </si>
@@ -178,18 +182,131 @@
   <si>
     <t>MIN</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>File Number</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Specimens</t>
+  </si>
+  <si>
+    <t>Split Instructions</t>
+  </si>
+  <si>
+    <t>Special Instructions</t>
+  </si>
+  <si>
+    <t>Specific Protocol</t>
+  </si>
+  <si>
+    <t>Staircase</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Consigne 2</t>
+  </si>
+  <si>
+    <t>Consigne 1</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Waveform</t>
+  </si>
+  <si>
+    <t>Tests Conditions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(YYYY-MM-DD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Job Instructions</t>
+  </si>
+  <si>
+    <t>Checker</t>
+  </si>
+  <si>
+    <t>Preparator</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>OT - XXXXX</t>
+  </si>
+  <si>
+    <t>Fatigue Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0##"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -272,8 +389,113 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF203764"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF203764"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF44546A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +520,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -519,13 +747,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -680,25 +961,29 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -712,38 +997,137 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Milliers 2" xfId="1"/>
+  <cellStyles count="4">
+    <cellStyle name="Milliers 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{35814BA8-F2A7-4796-BE64-FE8A7B993BD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,6 +1149,112 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381811" cy="1938130"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACA10AB-C7AE-48AB-852E-514AEC82972C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10924562" y="0"/>
+          <a:ext cx="381811" cy="1938130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="907676" cy="898009"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F4BA81-771C-452C-949A-42BA62E38FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="907676" cy="898009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -774,16 +1264,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>305360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>64995</xdr:rowOff>
+      <xdr:colOff>322569</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1144" name="Picture 1" descr="Logo Metcut">
+        <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECBE952-1A97-42BE-A4B5-07ECA768F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5528BE42-02F9-4B19-A668-77ED791DD762}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,15 +1297,12 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="857250" cy="771525"/>
+          <a:ext cx="907676" cy="898009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -823,16 +1310,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -846,7 +1323,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="2016 W40"/>
+      <sheetName val="2016 W49"/>
       <sheetName val="DEVIS"/>
       <sheetName val="CLIENTS"/>
       <sheetName val="TEchnip"/>
@@ -854,17 +1331,24 @@
       <sheetName val="A&amp;D"/>
       <sheetName val="SBER"/>
       <sheetName val="Safran AE"/>
-      <sheetName val="Usinage MRI"/>
+      <sheetName val="Otto Fuchs"/>
       <sheetName val="Listes"/>
       <sheetName val="2016 W43"/>
+      <sheetName val="Usinage MRI"/>
+      <sheetName val="2016 W40"/>
       <sheetName val="2016 W45"/>
-      <sheetName val="2016 W49"/>
-      <sheetName val="Otto Fuchs"/>
+      <sheetName val="2017 W01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>8001</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -873,6 +1357,9 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="3">
+          <cell r="B3" t="str">
+            <v>0            Forecast</v>
+          </cell>
           <cell r="G3" t="str">
             <v>RT</v>
           </cell>
@@ -897,6 +1384,7 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1356,12 +1844,5637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D45136B-340E-4B6E-B234-72A8A5313EC5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16" width="6.7109375" style="84" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="84" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="84" customWidth="1"/>
+    <col min="19" max="23" width="10.85546875" style="83" customWidth="1"/>
+    <col min="24" max="16384" width="10.85546875" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="109"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="119"/>
+      <c r="M4" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="119"/>
+      <c r="O4" s="109"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="118"/>
+      <c r="K5" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="110"/>
+      <c r="O5" s="109"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="I6" s="113"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="109"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="109"/>
+    </row>
+    <row r="8" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+    </row>
+    <row r="10" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:18" s="99" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="108"/>
+      <c r="O11" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+    </row>
+    <row r="12" spans="1:18" s="99" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+    </row>
+    <row r="13" spans="1:18" s="99" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="108"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="106"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+    </row>
+    <row r="14" spans="1:18" s="99" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="103"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+    </row>
+    <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+    </row>
+    <row r="17" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+    </row>
+    <row r="24" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+    </row>
+    <row r="26" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:18" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="96"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="96"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+    </row>
+    <row r="28" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="90"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="92"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="89"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+    </row>
+    <row r="29" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="92"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="89"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+    </row>
+    <row r="30" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="92"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="89"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+    </row>
+    <row r="31" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="89"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+    </row>
+    <row r="32" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="92"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="89"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+    </row>
+    <row r="33" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="90"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="92"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="89"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+    </row>
+    <row r="34" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="90"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="92"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="89"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+    </row>
+    <row r="35" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="89"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+    </row>
+    <row r="36" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="90"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="89"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+    </row>
+    <row r="37" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="92"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="89"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+    </row>
+    <row r="38" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="92"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="89"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+    </row>
+    <row r="39" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="92"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="89"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+    </row>
+    <row r="40" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="92"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="89"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+    </row>
+    <row r="41" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="92"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="89"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+    </row>
+    <row r="42" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="92"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="89"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+    </row>
+    <row r="43" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="92"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="89"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+    </row>
+    <row r="44" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="92"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="89"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+    </row>
+    <row r="45" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="92"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N45" s="89"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+    </row>
+    <row r="46" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="92"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="89"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+    </row>
+    <row r="47" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="90"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="92"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N47" s="89"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+    </row>
+    <row r="48" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="90"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="92"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="91"/>
+      <c r="M48" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="89"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+    </row>
+    <row r="49" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="92"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" s="89"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
+    </row>
+    <row r="50" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="90"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="92"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N50" s="89"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+    </row>
+    <row r="51" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="90"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="92"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51" s="89"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+    </row>
+    <row r="52" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="90"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="92"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N52" s="89"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+    </row>
+    <row r="53" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="92"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N53" s="89"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+    </row>
+    <row r="54" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="92"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N54" s="89"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+    </row>
+    <row r="55" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" s="92"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N55" s="89"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+    </row>
+    <row r="56" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="92"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N56" s="89"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="86"/>
+    </row>
+    <row r="57" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="92"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N57" s="89"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="86"/>
+    </row>
+    <row r="58" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="92"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" s="89"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="86"/>
+    </row>
+    <row r="59" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="92"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N59" s="89"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="86"/>
+      <c r="R59" s="86"/>
+    </row>
+    <row r="60" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="90"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="92"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" s="89"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="86"/>
+      <c r="R60" s="86"/>
+    </row>
+    <row r="61" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="90"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" s="92"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" s="89"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="86"/>
+    </row>
+    <row r="62" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="90"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="92"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N62" s="89"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="86"/>
+      <c r="R62" s="86"/>
+    </row>
+    <row r="63" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="90"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="92"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N63" s="89"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="86"/>
+      <c r="R63" s="86"/>
+    </row>
+    <row r="64" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="90"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="92"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" s="89"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="86"/>
+      <c r="R64" s="86"/>
+    </row>
+    <row r="65" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="92"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N65" s="89"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="86"/>
+      <c r="R65" s="86"/>
+    </row>
+    <row r="66" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="92"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N66" s="89"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="86"/>
+      <c r="R66" s="86"/>
+    </row>
+    <row r="67" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="92"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N67" s="89"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="86"/>
+      <c r="R67" s="86"/>
+    </row>
+    <row r="68" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="92"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N68" s="89"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="86"/>
+      <c r="R68" s="86"/>
+    </row>
+    <row r="69" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="92"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" s="89"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+    </row>
+    <row r="70" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="90"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" s="92"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N70" s="89"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+    </row>
+    <row r="71" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="90"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="92"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N71" s="89"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="86"/>
+    </row>
+    <row r="72" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="90"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72" s="92"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N72" s="89"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="86"/>
+      <c r="R72" s="86"/>
+    </row>
+    <row r="73" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="90"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" s="92"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N73" s="89"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="86"/>
+      <c r="R73" s="86"/>
+    </row>
+    <row r="74" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" s="92"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N74" s="89"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="86"/>
+      <c r="R74" s="86"/>
+    </row>
+    <row r="75" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J75" s="92"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N75" s="89"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="86"/>
+      <c r="R75" s="86"/>
+    </row>
+    <row r="76" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="90"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J76" s="92"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N76" s="89"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="86"/>
+      <c r="R76" s="86"/>
+    </row>
+    <row r="77" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="90"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" s="92"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N77" s="89"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="86"/>
+      <c r="R77" s="86"/>
+    </row>
+    <row r="78" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J78" s="92"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="91"/>
+      <c r="M78" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N78" s="89"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="87"/>
+      <c r="Q78" s="86"/>
+      <c r="R78" s="86"/>
+    </row>
+    <row r="79" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" s="92"/>
+      <c r="K79" s="89"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N79" s="89"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="86"/>
+      <c r="R79" s="86"/>
+    </row>
+    <row r="80" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="90"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="92"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N80" s="89"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="86"/>
+      <c r="R80" s="86"/>
+    </row>
+    <row r="81" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="90"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J81" s="92"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="91"/>
+      <c r="M81" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N81" s="89"/>
+      <c r="O81" s="88"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="86"/>
+      <c r="R81" s="86"/>
+    </row>
+    <row r="82" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="90"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J82" s="92"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="91"/>
+      <c r="M82" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N82" s="89"/>
+      <c r="O82" s="88"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="86"/>
+      <c r="R82" s="86"/>
+    </row>
+    <row r="83" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="90"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" s="92"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N83" s="89"/>
+      <c r="O83" s="88"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="86"/>
+      <c r="R83" s="86"/>
+    </row>
+    <row r="84" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="90"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" s="92"/>
+      <c r="K84" s="89"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N84" s="89"/>
+      <c r="O84" s="88"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="86"/>
+      <c r="R84" s="86"/>
+    </row>
+    <row r="85" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="90"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J85" s="92"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N85" s="89"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="86"/>
+      <c r="R85" s="86"/>
+    </row>
+    <row r="86" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="90"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J86" s="92"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="91"/>
+      <c r="M86" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N86" s="89"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+    </row>
+    <row r="87" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="90"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" s="92"/>
+      <c r="K87" s="89"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N87" s="89"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+    </row>
+    <row r="88" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="90"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J88" s="92"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N88" s="89"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="87"/>
+      <c r="Q88" s="86"/>
+      <c r="R88" s="86"/>
+    </row>
+    <row r="89" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="90"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J89" s="92"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N89" s="89"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="86"/>
+      <c r="R89" s="86"/>
+    </row>
+    <row r="90" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="90"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J90" s="92"/>
+      <c r="K90" s="89"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N90" s="89"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="86"/>
+      <c r="R90" s="86"/>
+    </row>
+    <row r="91" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="90"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91" s="92"/>
+      <c r="K91" s="89"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N91" s="89"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="86"/>
+      <c r="R91" s="86"/>
+    </row>
+    <row r="92" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="90"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J92" s="92"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="91"/>
+      <c r="M92" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N92" s="89"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="86"/>
+      <c r="R92" s="86"/>
+    </row>
+    <row r="93" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="90"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" s="92"/>
+      <c r="K93" s="89"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N93" s="89"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="86"/>
+      <c r="R93" s="86"/>
+    </row>
+    <row r="94" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="90"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J94" s="92"/>
+      <c r="K94" s="89"/>
+      <c r="L94" s="91"/>
+      <c r="M94" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N94" s="89"/>
+      <c r="O94" s="88"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="86"/>
+      <c r="R94" s="86"/>
+    </row>
+    <row r="95" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="90"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="89"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J95" s="92"/>
+      <c r="K95" s="89"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N95" s="89"/>
+      <c r="O95" s="88"/>
+      <c r="P95" s="87"/>
+      <c r="Q95" s="86"/>
+      <c r="R95" s="86"/>
+    </row>
+    <row r="96" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="90"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" s="92"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="91"/>
+      <c r="M96" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N96" s="89"/>
+      <c r="O96" s="88"/>
+      <c r="P96" s="87"/>
+      <c r="Q96" s="86"/>
+      <c r="R96" s="86"/>
+    </row>
+    <row r="97" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="90"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" s="92"/>
+      <c r="K97" s="89"/>
+      <c r="L97" s="91"/>
+      <c r="M97" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N97" s="89"/>
+      <c r="O97" s="88"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="86"/>
+      <c r="R97" s="86"/>
+    </row>
+    <row r="98" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="90"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="89"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98" s="92"/>
+      <c r="K98" s="89"/>
+      <c r="L98" s="91"/>
+      <c r="M98" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N98" s="89"/>
+      <c r="O98" s="88"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="86"/>
+      <c r="R98" s="86"/>
+    </row>
+    <row r="99" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="90"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="92"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="91"/>
+      <c r="M99" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N99" s="89"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="87"/>
+      <c r="Q99" s="86"/>
+      <c r="R99" s="86"/>
+    </row>
+    <row r="100" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="90"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J100" s="92"/>
+      <c r="K100" s="89"/>
+      <c r="L100" s="91"/>
+      <c r="M100" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N100" s="89"/>
+      <c r="O100" s="88"/>
+      <c r="P100" s="87"/>
+      <c r="Q100" s="86"/>
+      <c r="R100" s="86"/>
+    </row>
+    <row r="101" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="90"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101" s="92"/>
+      <c r="K101" s="89"/>
+      <c r="L101" s="91"/>
+      <c r="M101" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N101" s="89"/>
+      <c r="O101" s="88"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="86"/>
+      <c r="R101" s="86"/>
+    </row>
+    <row r="102" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="90"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="89"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" s="92"/>
+      <c r="K102" s="89"/>
+      <c r="L102" s="91"/>
+      <c r="M102" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N102" s="89"/>
+      <c r="O102" s="88"/>
+      <c r="P102" s="87"/>
+      <c r="Q102" s="86"/>
+      <c r="R102" s="86"/>
+    </row>
+    <row r="103" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="90"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="92"/>
+      <c r="K103" s="89"/>
+      <c r="L103" s="91"/>
+      <c r="M103" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N103" s="89"/>
+      <c r="O103" s="88"/>
+      <c r="P103" s="87"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+    </row>
+    <row r="104" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="90"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J104" s="92"/>
+      <c r="K104" s="89"/>
+      <c r="L104" s="91"/>
+      <c r="M104" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N104" s="89"/>
+      <c r="O104" s="88"/>
+      <c r="P104" s="87"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+    </row>
+    <row r="105" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="90"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="89"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J105" s="92"/>
+      <c r="K105" s="89"/>
+      <c r="L105" s="91"/>
+      <c r="M105" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N105" s="89"/>
+      <c r="O105" s="88"/>
+      <c r="P105" s="87"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+    </row>
+    <row r="106" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="90"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J106" s="92"/>
+      <c r="K106" s="89"/>
+      <c r="L106" s="91"/>
+      <c r="M106" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N106" s="89"/>
+      <c r="O106" s="88"/>
+      <c r="P106" s="87"/>
+      <c r="Q106" s="86"/>
+      <c r="R106" s="86"/>
+    </row>
+    <row r="107" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="90"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="91"/>
+      <c r="I107" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J107" s="92"/>
+      <c r="K107" s="89"/>
+      <c r="L107" s="91"/>
+      <c r="M107" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N107" s="89"/>
+      <c r="O107" s="88"/>
+      <c r="P107" s="87"/>
+      <c r="Q107" s="86"/>
+      <c r="R107" s="86"/>
+    </row>
+    <row r="108" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="90"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="89"/>
+      <c r="H108" s="91"/>
+      <c r="I108" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J108" s="92"/>
+      <c r="K108" s="89"/>
+      <c r="L108" s="91"/>
+      <c r="M108" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N108" s="89"/>
+      <c r="O108" s="88"/>
+      <c r="P108" s="87"/>
+      <c r="Q108" s="86"/>
+      <c r="R108" s="86"/>
+    </row>
+    <row r="109" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="90"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="91"/>
+      <c r="I109" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J109" s="92"/>
+      <c r="K109" s="89"/>
+      <c r="L109" s="91"/>
+      <c r="M109" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N109" s="89"/>
+      <c r="O109" s="88"/>
+      <c r="P109" s="87"/>
+      <c r="Q109" s="86"/>
+      <c r="R109" s="86"/>
+    </row>
+    <row r="110" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="90"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="91"/>
+      <c r="I110" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J110" s="92"/>
+      <c r="K110" s="89"/>
+      <c r="L110" s="91"/>
+      <c r="M110" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N110" s="89"/>
+      <c r="O110" s="88"/>
+      <c r="P110" s="87"/>
+      <c r="Q110" s="86"/>
+      <c r="R110" s="86"/>
+    </row>
+    <row r="111" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="90"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="89"/>
+      <c r="H111" s="91"/>
+      <c r="I111" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J111" s="92"/>
+      <c r="K111" s="89"/>
+      <c r="L111" s="91"/>
+      <c r="M111" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N111" s="89"/>
+      <c r="O111" s="88"/>
+      <c r="P111" s="87"/>
+      <c r="Q111" s="86"/>
+      <c r="R111" s="86"/>
+    </row>
+    <row r="112" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="90"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J112" s="92"/>
+      <c r="K112" s="89"/>
+      <c r="L112" s="91"/>
+      <c r="M112" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N112" s="89"/>
+      <c r="O112" s="88"/>
+      <c r="P112" s="87"/>
+      <c r="Q112" s="86"/>
+      <c r="R112" s="86"/>
+    </row>
+    <row r="113" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="90"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J113" s="92"/>
+      <c r="K113" s="89"/>
+      <c r="L113" s="91"/>
+      <c r="M113" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N113" s="89"/>
+      <c r="O113" s="88"/>
+      <c r="P113" s="87"/>
+      <c r="Q113" s="86"/>
+      <c r="R113" s="86"/>
+    </row>
+    <row r="114" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="90"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="91"/>
+      <c r="I114" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J114" s="92"/>
+      <c r="K114" s="89"/>
+      <c r="L114" s="91"/>
+      <c r="M114" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N114" s="89"/>
+      <c r="O114" s="88"/>
+      <c r="P114" s="87"/>
+      <c r="Q114" s="86"/>
+      <c r="R114" s="86"/>
+    </row>
+    <row r="115" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="90"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="91"/>
+      <c r="I115" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J115" s="92"/>
+      <c r="K115" s="89"/>
+      <c r="L115" s="91"/>
+      <c r="M115" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N115" s="89"/>
+      <c r="O115" s="88"/>
+      <c r="P115" s="87"/>
+      <c r="Q115" s="86"/>
+      <c r="R115" s="86"/>
+    </row>
+    <row r="116" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="90"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="93"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="89"/>
+      <c r="H116" s="91"/>
+      <c r="I116" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J116" s="92"/>
+      <c r="K116" s="89"/>
+      <c r="L116" s="91"/>
+      <c r="M116" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N116" s="89"/>
+      <c r="O116" s="88"/>
+      <c r="P116" s="87"/>
+      <c r="Q116" s="86"/>
+      <c r="R116" s="86"/>
+    </row>
+    <row r="117" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="90"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="90"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="89"/>
+      <c r="H117" s="91"/>
+      <c r="I117" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J117" s="92"/>
+      <c r="K117" s="89"/>
+      <c r="L117" s="91"/>
+      <c r="M117" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N117" s="89"/>
+      <c r="O117" s="88"/>
+      <c r="P117" s="87"/>
+      <c r="Q117" s="86"/>
+      <c r="R117" s="86"/>
+    </row>
+    <row r="118" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="90"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="93"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="89"/>
+      <c r="H118" s="91"/>
+      <c r="I118" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J118" s="92"/>
+      <c r="K118" s="89"/>
+      <c r="L118" s="91"/>
+      <c r="M118" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N118" s="89"/>
+      <c r="O118" s="88"/>
+      <c r="P118" s="87"/>
+      <c r="Q118" s="86"/>
+      <c r="R118" s="86"/>
+    </row>
+    <row r="119" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="90"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="89"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J119" s="92"/>
+      <c r="K119" s="89"/>
+      <c r="L119" s="91"/>
+      <c r="M119" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N119" s="89"/>
+      <c r="O119" s="88"/>
+      <c r="P119" s="87"/>
+      <c r="Q119" s="86"/>
+      <c r="R119" s="86"/>
+    </row>
+    <row r="120" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="90"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="93"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="91"/>
+      <c r="I120" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J120" s="92"/>
+      <c r="K120" s="89"/>
+      <c r="L120" s="91"/>
+      <c r="M120" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N120" s="89"/>
+      <c r="O120" s="88"/>
+      <c r="P120" s="87"/>
+      <c r="Q120" s="86"/>
+      <c r="R120" s="86"/>
+    </row>
+    <row r="121" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="90"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="90"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J121" s="92"/>
+      <c r="K121" s="89"/>
+      <c r="L121" s="91"/>
+      <c r="M121" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N121" s="89"/>
+      <c r="O121" s="88"/>
+      <c r="P121" s="87"/>
+      <c r="Q121" s="86"/>
+      <c r="R121" s="86"/>
+    </row>
+    <row r="122" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="90"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="93"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="91"/>
+      <c r="I122" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122" s="92"/>
+      <c r="K122" s="89"/>
+      <c r="L122" s="91"/>
+      <c r="M122" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N122" s="89"/>
+      <c r="O122" s="88"/>
+      <c r="P122" s="87"/>
+      <c r="Q122" s="86"/>
+      <c r="R122" s="86"/>
+    </row>
+    <row r="123" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="90"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123" s="92"/>
+      <c r="K123" s="89"/>
+      <c r="L123" s="91"/>
+      <c r="M123" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N123" s="89"/>
+      <c r="O123" s="88"/>
+      <c r="P123" s="87"/>
+      <c r="Q123" s="86"/>
+      <c r="R123" s="86"/>
+    </row>
+    <row r="124" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="90"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="89"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J124" s="92"/>
+      <c r="K124" s="89"/>
+      <c r="L124" s="91"/>
+      <c r="M124" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N124" s="89"/>
+      <c r="O124" s="88"/>
+      <c r="P124" s="87"/>
+      <c r="Q124" s="86"/>
+      <c r="R124" s="86"/>
+    </row>
+    <row r="125" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="90"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J125" s="92"/>
+      <c r="K125" s="89"/>
+      <c r="L125" s="91"/>
+      <c r="M125" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N125" s="89"/>
+      <c r="O125" s="88"/>
+      <c r="P125" s="87"/>
+      <c r="Q125" s="86"/>
+      <c r="R125" s="86"/>
+    </row>
+    <row r="126" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="90"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="89"/>
+      <c r="H126" s="91"/>
+      <c r="I126" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J126" s="92"/>
+      <c r="K126" s="89"/>
+      <c r="L126" s="91"/>
+      <c r="M126" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N126" s="89"/>
+      <c r="O126" s="88"/>
+      <c r="P126" s="87"/>
+      <c r="Q126" s="86"/>
+      <c r="R126" s="86"/>
+    </row>
+    <row r="127" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="90"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="92"/>
+      <c r="G127" s="89"/>
+      <c r="H127" s="91"/>
+      <c r="I127" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J127" s="92"/>
+      <c r="K127" s="89"/>
+      <c r="L127" s="91"/>
+      <c r="M127" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N127" s="89"/>
+      <c r="O127" s="88"/>
+      <c r="P127" s="87"/>
+      <c r="Q127" s="86"/>
+      <c r="R127" s="86"/>
+    </row>
+    <row r="128" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="90"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="92"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="91"/>
+      <c r="I128" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J128" s="92"/>
+      <c r="K128" s="89"/>
+      <c r="L128" s="91"/>
+      <c r="M128" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N128" s="89"/>
+      <c r="O128" s="88"/>
+      <c r="P128" s="87"/>
+      <c r="Q128" s="86"/>
+      <c r="R128" s="86"/>
+    </row>
+    <row r="129" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="90"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="92"/>
+      <c r="G129" s="89"/>
+      <c r="H129" s="91"/>
+      <c r="I129" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J129" s="92"/>
+      <c r="K129" s="89"/>
+      <c r="L129" s="91"/>
+      <c r="M129" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N129" s="89"/>
+      <c r="O129" s="88"/>
+      <c r="P129" s="87"/>
+      <c r="Q129" s="86"/>
+      <c r="R129" s="86"/>
+    </row>
+    <row r="130" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="90"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="92"/>
+      <c r="G130" s="89"/>
+      <c r="H130" s="91"/>
+      <c r="I130" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J130" s="92"/>
+      <c r="K130" s="89"/>
+      <c r="L130" s="91"/>
+      <c r="M130" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N130" s="89"/>
+      <c r="O130" s="88"/>
+      <c r="P130" s="87"/>
+      <c r="Q130" s="86"/>
+      <c r="R130" s="86"/>
+    </row>
+    <row r="131" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="90"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="89"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J131" s="92"/>
+      <c r="K131" s="89"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N131" s="89"/>
+      <c r="O131" s="88"/>
+      <c r="P131" s="87"/>
+      <c r="Q131" s="86"/>
+      <c r="R131" s="86"/>
+    </row>
+    <row r="132" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="90"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="92"/>
+      <c r="G132" s="89"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J132" s="92"/>
+      <c r="K132" s="89"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N132" s="89"/>
+      <c r="O132" s="88"/>
+      <c r="P132" s="87"/>
+      <c r="Q132" s="86"/>
+      <c r="R132" s="86"/>
+    </row>
+    <row r="133" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="90"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="89"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J133" s="92"/>
+      <c r="K133" s="89"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N133" s="89"/>
+      <c r="O133" s="88"/>
+      <c r="P133" s="87"/>
+      <c r="Q133" s="86"/>
+      <c r="R133" s="86"/>
+    </row>
+    <row r="134" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="90"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="92"/>
+      <c r="G134" s="89"/>
+      <c r="H134" s="91"/>
+      <c r="I134" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J134" s="92"/>
+      <c r="K134" s="89"/>
+      <c r="L134" s="91"/>
+      <c r="M134" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N134" s="89"/>
+      <c r="O134" s="88"/>
+      <c r="P134" s="87"/>
+      <c r="Q134" s="86"/>
+      <c r="R134" s="86"/>
+    </row>
+    <row r="135" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="90"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="89"/>
+      <c r="H135" s="91"/>
+      <c r="I135" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J135" s="92"/>
+      <c r="K135" s="89"/>
+      <c r="L135" s="91"/>
+      <c r="M135" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N135" s="89"/>
+      <c r="O135" s="88"/>
+      <c r="P135" s="87"/>
+      <c r="Q135" s="86"/>
+      <c r="R135" s="86"/>
+    </row>
+    <row r="136" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="90"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="91"/>
+      <c r="I136" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J136" s="92"/>
+      <c r="K136" s="89"/>
+      <c r="L136" s="91"/>
+      <c r="M136" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N136" s="89"/>
+      <c r="O136" s="88"/>
+      <c r="P136" s="87"/>
+      <c r="Q136" s="86"/>
+      <c r="R136" s="86"/>
+    </row>
+    <row r="137" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="90"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="92"/>
+      <c r="G137" s="89"/>
+      <c r="H137" s="91"/>
+      <c r="I137" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J137" s="92"/>
+      <c r="K137" s="89"/>
+      <c r="L137" s="91"/>
+      <c r="M137" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N137" s="89"/>
+      <c r="O137" s="88"/>
+      <c r="P137" s="87"/>
+      <c r="Q137" s="86"/>
+      <c r="R137" s="86"/>
+    </row>
+    <row r="138" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="90"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="91"/>
+      <c r="I138" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J138" s="92"/>
+      <c r="K138" s="89"/>
+      <c r="L138" s="91"/>
+      <c r="M138" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N138" s="89"/>
+      <c r="O138" s="88"/>
+      <c r="P138" s="87"/>
+      <c r="Q138" s="86"/>
+      <c r="R138" s="86"/>
+    </row>
+    <row r="139" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="90"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="89"/>
+      <c r="H139" s="91"/>
+      <c r="I139" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J139" s="92"/>
+      <c r="K139" s="89"/>
+      <c r="L139" s="91"/>
+      <c r="M139" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N139" s="89"/>
+      <c r="O139" s="88"/>
+      <c r="P139" s="87"/>
+      <c r="Q139" s="86"/>
+      <c r="R139" s="86"/>
+    </row>
+    <row r="140" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="90"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="89"/>
+      <c r="H140" s="91"/>
+      <c r="I140" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J140" s="92"/>
+      <c r="K140" s="89"/>
+      <c r="L140" s="91"/>
+      <c r="M140" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N140" s="89"/>
+      <c r="O140" s="88"/>
+      <c r="P140" s="87"/>
+      <c r="Q140" s="86"/>
+      <c r="R140" s="86"/>
+    </row>
+    <row r="141" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="90"/>
+      <c r="B141" s="93"/>
+      <c r="C141" s="90"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="93"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="89"/>
+      <c r="H141" s="91"/>
+      <c r="I141" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J141" s="92"/>
+      <c r="K141" s="89"/>
+      <c r="L141" s="91"/>
+      <c r="M141" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N141" s="89"/>
+      <c r="O141" s="88"/>
+      <c r="P141" s="87"/>
+      <c r="Q141" s="86"/>
+      <c r="R141" s="86"/>
+    </row>
+    <row r="142" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="90"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="89"/>
+      <c r="H142" s="91"/>
+      <c r="I142" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J142" s="92"/>
+      <c r="K142" s="89"/>
+      <c r="L142" s="91"/>
+      <c r="M142" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N142" s="89"/>
+      <c r="O142" s="88"/>
+      <c r="P142" s="87"/>
+      <c r="Q142" s="86"/>
+      <c r="R142" s="86"/>
+    </row>
+    <row r="143" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="90"/>
+      <c r="B143" s="93"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="89"/>
+      <c r="H143" s="91"/>
+      <c r="I143" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J143" s="92"/>
+      <c r="K143" s="89"/>
+      <c r="L143" s="91"/>
+      <c r="M143" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N143" s="89"/>
+      <c r="O143" s="88"/>
+      <c r="P143" s="87"/>
+      <c r="Q143" s="86"/>
+      <c r="R143" s="86"/>
+    </row>
+    <row r="144" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="90"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="93"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="91"/>
+      <c r="I144" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J144" s="92"/>
+      <c r="K144" s="89"/>
+      <c r="L144" s="91"/>
+      <c r="M144" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N144" s="89"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="87"/>
+      <c r="Q144" s="86"/>
+      <c r="R144" s="86"/>
+    </row>
+    <row r="145" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="90"/>
+      <c r="B145" s="93"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J145" s="92"/>
+      <c r="K145" s="89"/>
+      <c r="L145" s="91"/>
+      <c r="M145" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N145" s="89"/>
+      <c r="O145" s="88"/>
+      <c r="P145" s="87"/>
+      <c r="Q145" s="86"/>
+      <c r="R145" s="86"/>
+    </row>
+    <row r="146" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="90"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="92"/>
+      <c r="G146" s="89"/>
+      <c r="H146" s="91"/>
+      <c r="I146" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="92"/>
+      <c r="K146" s="89"/>
+      <c r="L146" s="91"/>
+      <c r="M146" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N146" s="89"/>
+      <c r="O146" s="88"/>
+      <c r="P146" s="87"/>
+      <c r="Q146" s="86"/>
+      <c r="R146" s="86"/>
+    </row>
+    <row r="147" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="90"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="92"/>
+      <c r="G147" s="89"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J147" s="92"/>
+      <c r="K147" s="89"/>
+      <c r="L147" s="91"/>
+      <c r="M147" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N147" s="89"/>
+      <c r="O147" s="88"/>
+      <c r="P147" s="87"/>
+      <c r="Q147" s="86"/>
+      <c r="R147" s="86"/>
+    </row>
+    <row r="148" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="90"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="93"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="91"/>
+      <c r="I148" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148" s="92"/>
+      <c r="K148" s="89"/>
+      <c r="L148" s="91"/>
+      <c r="M148" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N148" s="89"/>
+      <c r="O148" s="88"/>
+      <c r="P148" s="87"/>
+      <c r="Q148" s="86"/>
+      <c r="R148" s="86"/>
+    </row>
+    <row r="149" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="90"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="90"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="92"/>
+      <c r="G149" s="89"/>
+      <c r="H149" s="91"/>
+      <c r="I149" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J149" s="92"/>
+      <c r="K149" s="89"/>
+      <c r="L149" s="91"/>
+      <c r="M149" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N149" s="89"/>
+      <c r="O149" s="88"/>
+      <c r="P149" s="87"/>
+      <c r="Q149" s="86"/>
+      <c r="R149" s="86"/>
+    </row>
+    <row r="150" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="90"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="90"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="93"/>
+      <c r="F150" s="92"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="91"/>
+      <c r="I150" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J150" s="92"/>
+      <c r="K150" s="89"/>
+      <c r="L150" s="91"/>
+      <c r="M150" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N150" s="89"/>
+      <c r="O150" s="88"/>
+      <c r="P150" s="87"/>
+      <c r="Q150" s="86"/>
+      <c r="R150" s="86"/>
+    </row>
+    <row r="151" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="90"/>
+      <c r="B151" s="93"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="89"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J151" s="92"/>
+      <c r="K151" s="89"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N151" s="89"/>
+      <c r="O151" s="88"/>
+      <c r="P151" s="87"/>
+      <c r="Q151" s="86"/>
+      <c r="R151" s="86"/>
+    </row>
+    <row r="152" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="90"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="91"/>
+      <c r="I152" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J152" s="92"/>
+      <c r="K152" s="89"/>
+      <c r="L152" s="91"/>
+      <c r="M152" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N152" s="89"/>
+      <c r="O152" s="88"/>
+      <c r="P152" s="87"/>
+      <c r="Q152" s="86"/>
+      <c r="R152" s="86"/>
+    </row>
+    <row r="153" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="90"/>
+      <c r="B153" s="93"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="89"/>
+      <c r="H153" s="91"/>
+      <c r="I153" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J153" s="92"/>
+      <c r="K153" s="89"/>
+      <c r="L153" s="91"/>
+      <c r="M153" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N153" s="89"/>
+      <c r="O153" s="88"/>
+      <c r="P153" s="87"/>
+      <c r="Q153" s="86"/>
+      <c r="R153" s="86"/>
+    </row>
+    <row r="154" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="90"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="89"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J154" s="92"/>
+      <c r="K154" s="89"/>
+      <c r="L154" s="91"/>
+      <c r="M154" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N154" s="89"/>
+      <c r="O154" s="88"/>
+      <c r="P154" s="87"/>
+      <c r="Q154" s="86"/>
+      <c r="R154" s="86"/>
+    </row>
+    <row r="155" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="90"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="90"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="89"/>
+      <c r="H155" s="91"/>
+      <c r="I155" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J155" s="92"/>
+      <c r="K155" s="89"/>
+      <c r="L155" s="91"/>
+      <c r="M155" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N155" s="89"/>
+      <c r="O155" s="88"/>
+      <c r="P155" s="87"/>
+      <c r="Q155" s="86"/>
+      <c r="R155" s="86"/>
+    </row>
+    <row r="156" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="90"/>
+      <c r="B156" s="93"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="93"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J156" s="92"/>
+      <c r="K156" s="89"/>
+      <c r="L156" s="91"/>
+      <c r="M156" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N156" s="89"/>
+      <c r="O156" s="88"/>
+      <c r="P156" s="87"/>
+      <c r="Q156" s="86"/>
+      <c r="R156" s="86"/>
+    </row>
+    <row r="157" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="90"/>
+      <c r="B157" s="93"/>
+      <c r="C157" s="90"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="92"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J157" s="92"/>
+      <c r="K157" s="89"/>
+      <c r="L157" s="91"/>
+      <c r="M157" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N157" s="89"/>
+      <c r="O157" s="88"/>
+      <c r="P157" s="87"/>
+      <c r="Q157" s="86"/>
+      <c r="R157" s="86"/>
+    </row>
+    <row r="158" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="90"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="90"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J158" s="92"/>
+      <c r="K158" s="89"/>
+      <c r="L158" s="91"/>
+      <c r="M158" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N158" s="89"/>
+      <c r="O158" s="88"/>
+      <c r="P158" s="87"/>
+      <c r="Q158" s="86"/>
+      <c r="R158" s="86"/>
+    </row>
+    <row r="159" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="90"/>
+      <c r="B159" s="93"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="93"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="89"/>
+      <c r="H159" s="91"/>
+      <c r="I159" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J159" s="92"/>
+      <c r="K159" s="89"/>
+      <c r="L159" s="91"/>
+      <c r="M159" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N159" s="89"/>
+      <c r="O159" s="88"/>
+      <c r="P159" s="87"/>
+      <c r="Q159" s="86"/>
+      <c r="R159" s="86"/>
+    </row>
+    <row r="160" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="90"/>
+      <c r="B160" s="93"/>
+      <c r="C160" s="90"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="93"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="91"/>
+      <c r="I160" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J160" s="92"/>
+      <c r="K160" s="89"/>
+      <c r="L160" s="91"/>
+      <c r="M160" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N160" s="89"/>
+      <c r="O160" s="88"/>
+      <c r="P160" s="87"/>
+      <c r="Q160" s="86"/>
+      <c r="R160" s="86"/>
+    </row>
+    <row r="161" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="90"/>
+      <c r="B161" s="93"/>
+      <c r="C161" s="90"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="93"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="89"/>
+      <c r="H161" s="91"/>
+      <c r="I161" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J161" s="92"/>
+      <c r="K161" s="89"/>
+      <c r="L161" s="91"/>
+      <c r="M161" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N161" s="89"/>
+      <c r="O161" s="88"/>
+      <c r="P161" s="87"/>
+      <c r="Q161" s="86"/>
+      <c r="R161" s="86"/>
+    </row>
+    <row r="162" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="90"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="90"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="93"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="89"/>
+      <c r="H162" s="91"/>
+      <c r="I162" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J162" s="92"/>
+      <c r="K162" s="89"/>
+      <c r="L162" s="91"/>
+      <c r="M162" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N162" s="89"/>
+      <c r="O162" s="88"/>
+      <c r="P162" s="87"/>
+      <c r="Q162" s="86"/>
+      <c r="R162" s="86"/>
+    </row>
+    <row r="163" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="90"/>
+      <c r="B163" s="93"/>
+      <c r="C163" s="90"/>
+      <c r="D163" s="92"/>
+      <c r="E163" s="93"/>
+      <c r="F163" s="92"/>
+      <c r="G163" s="89"/>
+      <c r="H163" s="91"/>
+      <c r="I163" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J163" s="92"/>
+      <c r="K163" s="89"/>
+      <c r="L163" s="91"/>
+      <c r="M163" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N163" s="89"/>
+      <c r="O163" s="88"/>
+      <c r="P163" s="87"/>
+      <c r="Q163" s="86"/>
+      <c r="R163" s="86"/>
+    </row>
+    <row r="164" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="90"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="90"/>
+      <c r="D164" s="92"/>
+      <c r="E164" s="93"/>
+      <c r="F164" s="92"/>
+      <c r="G164" s="89"/>
+      <c r="H164" s="91"/>
+      <c r="I164" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J164" s="92"/>
+      <c r="K164" s="89"/>
+      <c r="L164" s="91"/>
+      <c r="M164" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N164" s="89"/>
+      <c r="O164" s="88"/>
+      <c r="P164" s="87"/>
+      <c r="Q164" s="86"/>
+      <c r="R164" s="86"/>
+    </row>
+    <row r="165" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="90"/>
+      <c r="B165" s="93"/>
+      <c r="C165" s="90"/>
+      <c r="D165" s="92"/>
+      <c r="E165" s="93"/>
+      <c r="F165" s="92"/>
+      <c r="G165" s="89"/>
+      <c r="H165" s="91"/>
+      <c r="I165" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J165" s="92"/>
+      <c r="K165" s="89"/>
+      <c r="L165" s="91"/>
+      <c r="M165" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N165" s="89"/>
+      <c r="O165" s="88"/>
+      <c r="P165" s="87"/>
+      <c r="Q165" s="86"/>
+      <c r="R165" s="86"/>
+    </row>
+    <row r="166" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="90"/>
+      <c r="B166" s="93"/>
+      <c r="C166" s="90"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="93"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="89"/>
+      <c r="H166" s="91"/>
+      <c r="I166" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J166" s="92"/>
+      <c r="K166" s="89"/>
+      <c r="L166" s="91"/>
+      <c r="M166" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N166" s="89"/>
+      <c r="O166" s="88"/>
+      <c r="P166" s="87"/>
+      <c r="Q166" s="86"/>
+      <c r="R166" s="86"/>
+    </row>
+    <row r="167" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="90"/>
+      <c r="B167" s="93"/>
+      <c r="C167" s="90"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="93"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="89"/>
+      <c r="H167" s="91"/>
+      <c r="I167" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J167" s="92"/>
+      <c r="K167" s="89"/>
+      <c r="L167" s="91"/>
+      <c r="M167" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N167" s="89"/>
+      <c r="O167" s="88"/>
+      <c r="P167" s="87"/>
+      <c r="Q167" s="86"/>
+      <c r="R167" s="86"/>
+    </row>
+    <row r="168" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="90"/>
+      <c r="B168" s="93"/>
+      <c r="C168" s="90"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="93"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="91"/>
+      <c r="I168" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J168" s="92"/>
+      <c r="K168" s="89"/>
+      <c r="L168" s="91"/>
+      <c r="M168" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N168" s="89"/>
+      <c r="O168" s="88"/>
+      <c r="P168" s="87"/>
+      <c r="Q168" s="86"/>
+      <c r="R168" s="86"/>
+    </row>
+    <row r="169" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="90"/>
+      <c r="B169" s="93"/>
+      <c r="C169" s="90"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="93"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="89"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J169" s="92"/>
+      <c r="K169" s="89"/>
+      <c r="L169" s="91"/>
+      <c r="M169" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N169" s="89"/>
+      <c r="O169" s="88"/>
+      <c r="P169" s="87"/>
+      <c r="Q169" s="86"/>
+      <c r="R169" s="86"/>
+    </row>
+    <row r="170" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="90"/>
+      <c r="B170" s="93"/>
+      <c r="C170" s="90"/>
+      <c r="D170" s="92"/>
+      <c r="E170" s="93"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="89"/>
+      <c r="H170" s="91"/>
+      <c r="I170" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J170" s="92"/>
+      <c r="K170" s="89"/>
+      <c r="L170" s="91"/>
+      <c r="M170" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N170" s="89"/>
+      <c r="O170" s="88"/>
+      <c r="P170" s="87"/>
+      <c r="Q170" s="86"/>
+      <c r="R170" s="86"/>
+    </row>
+    <row r="171" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="90"/>
+      <c r="B171" s="93"/>
+      <c r="C171" s="90"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="93"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="89"/>
+      <c r="H171" s="91"/>
+      <c r="I171" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J171" s="92"/>
+      <c r="K171" s="89"/>
+      <c r="L171" s="91"/>
+      <c r="M171" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N171" s="89"/>
+      <c r="O171" s="88"/>
+      <c r="P171" s="87"/>
+      <c r="Q171" s="86"/>
+      <c r="R171" s="86"/>
+    </row>
+    <row r="172" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="90"/>
+      <c r="B172" s="93"/>
+      <c r="C172" s="90"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="93"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="89"/>
+      <c r="H172" s="91"/>
+      <c r="I172" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J172" s="92"/>
+      <c r="K172" s="89"/>
+      <c r="L172" s="91"/>
+      <c r="M172" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N172" s="89"/>
+      <c r="O172" s="88"/>
+      <c r="P172" s="87"/>
+      <c r="Q172" s="86"/>
+      <c r="R172" s="86"/>
+    </row>
+    <row r="173" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="90"/>
+      <c r="B173" s="93"/>
+      <c r="C173" s="90"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="93"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="89"/>
+      <c r="H173" s="91"/>
+      <c r="I173" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J173" s="92"/>
+      <c r="K173" s="89"/>
+      <c r="L173" s="91"/>
+      <c r="M173" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N173" s="89"/>
+      <c r="O173" s="88"/>
+      <c r="P173" s="87"/>
+      <c r="Q173" s="86"/>
+      <c r="R173" s="86"/>
+    </row>
+    <row r="174" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="90"/>
+      <c r="B174" s="93"/>
+      <c r="C174" s="90"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="93"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="89"/>
+      <c r="H174" s="91"/>
+      <c r="I174" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J174" s="92"/>
+      <c r="K174" s="89"/>
+      <c r="L174" s="91"/>
+      <c r="M174" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N174" s="89"/>
+      <c r="O174" s="88"/>
+      <c r="P174" s="87"/>
+      <c r="Q174" s="86"/>
+      <c r="R174" s="86"/>
+    </row>
+    <row r="175" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="90"/>
+      <c r="B175" s="93"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="93"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="89"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J175" s="92"/>
+      <c r="K175" s="89"/>
+      <c r="L175" s="91"/>
+      <c r="M175" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N175" s="89"/>
+      <c r="O175" s="88"/>
+      <c r="P175" s="87"/>
+      <c r="Q175" s="86"/>
+      <c r="R175" s="86"/>
+    </row>
+    <row r="176" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="90"/>
+      <c r="B176" s="93"/>
+      <c r="C176" s="90"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="93"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="91"/>
+      <c r="I176" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J176" s="92"/>
+      <c r="K176" s="89"/>
+      <c r="L176" s="91"/>
+      <c r="M176" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N176" s="89"/>
+      <c r="O176" s="88"/>
+      <c r="P176" s="87"/>
+      <c r="Q176" s="86"/>
+      <c r="R176" s="86"/>
+    </row>
+    <row r="177" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="90"/>
+      <c r="B177" s="93"/>
+      <c r="C177" s="90"/>
+      <c r="D177" s="92"/>
+      <c r="E177" s="93"/>
+      <c r="F177" s="92"/>
+      <c r="G177" s="89"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J177" s="92"/>
+      <c r="K177" s="89"/>
+      <c r="L177" s="91"/>
+      <c r="M177" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N177" s="89"/>
+      <c r="O177" s="88"/>
+      <c r="P177" s="87"/>
+      <c r="Q177" s="86"/>
+      <c r="R177" s="86"/>
+    </row>
+    <row r="178" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="90"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="90"/>
+      <c r="D178" s="92"/>
+      <c r="E178" s="93"/>
+      <c r="F178" s="92"/>
+      <c r="G178" s="89"/>
+      <c r="H178" s="91"/>
+      <c r="I178" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J178" s="92"/>
+      <c r="K178" s="89"/>
+      <c r="L178" s="91"/>
+      <c r="M178" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N178" s="89"/>
+      <c r="O178" s="88"/>
+      <c r="P178" s="87"/>
+      <c r="Q178" s="86"/>
+      <c r="R178" s="86"/>
+    </row>
+    <row r="179" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="90"/>
+      <c r="B179" s="93"/>
+      <c r="C179" s="90"/>
+      <c r="D179" s="92"/>
+      <c r="E179" s="93"/>
+      <c r="F179" s="92"/>
+      <c r="G179" s="89"/>
+      <c r="H179" s="91"/>
+      <c r="I179" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J179" s="92"/>
+      <c r="K179" s="89"/>
+      <c r="L179" s="91"/>
+      <c r="M179" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N179" s="89"/>
+      <c r="O179" s="88"/>
+      <c r="P179" s="87"/>
+      <c r="Q179" s="86"/>
+      <c r="R179" s="86"/>
+    </row>
+    <row r="180" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="90"/>
+      <c r="B180" s="93"/>
+      <c r="C180" s="90"/>
+      <c r="D180" s="92"/>
+      <c r="E180" s="93"/>
+      <c r="F180" s="92"/>
+      <c r="G180" s="89"/>
+      <c r="H180" s="91"/>
+      <c r="I180" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J180" s="92"/>
+      <c r="K180" s="89"/>
+      <c r="L180" s="91"/>
+      <c r="M180" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N180" s="89"/>
+      <c r="O180" s="88"/>
+      <c r="P180" s="87"/>
+      <c r="Q180" s="86"/>
+      <c r="R180" s="86"/>
+    </row>
+    <row r="181" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="90"/>
+      <c r="B181" s="93"/>
+      <c r="C181" s="90"/>
+      <c r="D181" s="92"/>
+      <c r="E181" s="93"/>
+      <c r="F181" s="92"/>
+      <c r="G181" s="89"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J181" s="92"/>
+      <c r="K181" s="89"/>
+      <c r="L181" s="91"/>
+      <c r="M181" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N181" s="89"/>
+      <c r="O181" s="88"/>
+      <c r="P181" s="87"/>
+      <c r="Q181" s="86"/>
+      <c r="R181" s="86"/>
+    </row>
+    <row r="182" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="90"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="90"/>
+      <c r="D182" s="92"/>
+      <c r="E182" s="93"/>
+      <c r="F182" s="92"/>
+      <c r="G182" s="89"/>
+      <c r="H182" s="91"/>
+      <c r="I182" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J182" s="92"/>
+      <c r="K182" s="89"/>
+      <c r="L182" s="91"/>
+      <c r="M182" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N182" s="89"/>
+      <c r="O182" s="88"/>
+      <c r="P182" s="87"/>
+      <c r="Q182" s="86"/>
+      <c r="R182" s="86"/>
+    </row>
+    <row r="183" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="90"/>
+      <c r="B183" s="93"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="93"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="89"/>
+      <c r="H183" s="91"/>
+      <c r="I183" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J183" s="92"/>
+      <c r="K183" s="89"/>
+      <c r="L183" s="91"/>
+      <c r="M183" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N183" s="89"/>
+      <c r="O183" s="88"/>
+      <c r="P183" s="87"/>
+      <c r="Q183" s="86"/>
+      <c r="R183" s="86"/>
+    </row>
+    <row r="184" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="90"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="90"/>
+      <c r="D184" s="92"/>
+      <c r="E184" s="93"/>
+      <c r="F184" s="92"/>
+      <c r="G184" s="89"/>
+      <c r="H184" s="91"/>
+      <c r="I184" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J184" s="92"/>
+      <c r="K184" s="89"/>
+      <c r="L184" s="91"/>
+      <c r="M184" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N184" s="89"/>
+      <c r="O184" s="88"/>
+      <c r="P184" s="87"/>
+      <c r="Q184" s="86"/>
+      <c r="R184" s="86"/>
+    </row>
+    <row r="185" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="90"/>
+      <c r="B185" s="93"/>
+      <c r="C185" s="90"/>
+      <c r="D185" s="92"/>
+      <c r="E185" s="93"/>
+      <c r="F185" s="92"/>
+      <c r="G185" s="89"/>
+      <c r="H185" s="91"/>
+      <c r="I185" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J185" s="92"/>
+      <c r="K185" s="89"/>
+      <c r="L185" s="91"/>
+      <c r="M185" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N185" s="89"/>
+      <c r="O185" s="88"/>
+      <c r="P185" s="87"/>
+      <c r="Q185" s="86"/>
+      <c r="R185" s="86"/>
+    </row>
+    <row r="186" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="90"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="90"/>
+      <c r="D186" s="92"/>
+      <c r="E186" s="93"/>
+      <c r="F186" s="92"/>
+      <c r="G186" s="89"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J186" s="92"/>
+      <c r="K186" s="89"/>
+      <c r="L186" s="91"/>
+      <c r="M186" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N186" s="89"/>
+      <c r="O186" s="88"/>
+      <c r="P186" s="87"/>
+      <c r="Q186" s="86"/>
+      <c r="R186" s="86"/>
+    </row>
+    <row r="187" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="90"/>
+      <c r="B187" s="93"/>
+      <c r="C187" s="90"/>
+      <c r="D187" s="92"/>
+      <c r="E187" s="93"/>
+      <c r="F187" s="92"/>
+      <c r="G187" s="89"/>
+      <c r="H187" s="91"/>
+      <c r="I187" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J187" s="92"/>
+      <c r="K187" s="89"/>
+      <c r="L187" s="91"/>
+      <c r="M187" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N187" s="89"/>
+      <c r="O187" s="88"/>
+      <c r="P187" s="87"/>
+      <c r="Q187" s="86"/>
+      <c r="R187" s="86"/>
+    </row>
+    <row r="188" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="90"/>
+      <c r="B188" s="93"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="92"/>
+      <c r="E188" s="93"/>
+      <c r="F188" s="92"/>
+      <c r="G188" s="89"/>
+      <c r="H188" s="91"/>
+      <c r="I188" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J188" s="92"/>
+      <c r="K188" s="89"/>
+      <c r="L188" s="91"/>
+      <c r="M188" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N188" s="89"/>
+      <c r="O188" s="88"/>
+      <c r="P188" s="87"/>
+      <c r="Q188" s="86"/>
+      <c r="R188" s="86"/>
+    </row>
+    <row r="189" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="90"/>
+      <c r="B189" s="93"/>
+      <c r="C189" s="90"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="93"/>
+      <c r="F189" s="92"/>
+      <c r="G189" s="89"/>
+      <c r="H189" s="91"/>
+      <c r="I189" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J189" s="92"/>
+      <c r="K189" s="89"/>
+      <c r="L189" s="91"/>
+      <c r="M189" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N189" s="89"/>
+      <c r="O189" s="88"/>
+      <c r="P189" s="87"/>
+      <c r="Q189" s="86"/>
+      <c r="R189" s="86"/>
+    </row>
+    <row r="190" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="90"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="92"/>
+      <c r="E190" s="93"/>
+      <c r="F190" s="92"/>
+      <c r="G190" s="89"/>
+      <c r="H190" s="91"/>
+      <c r="I190" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J190" s="92"/>
+      <c r="K190" s="89"/>
+      <c r="L190" s="91"/>
+      <c r="M190" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N190" s="89"/>
+      <c r="O190" s="88"/>
+      <c r="P190" s="87"/>
+      <c r="Q190" s="86"/>
+      <c r="R190" s="86"/>
+    </row>
+    <row r="191" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="90"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="92"/>
+      <c r="E191" s="93"/>
+      <c r="F191" s="92"/>
+      <c r="G191" s="89"/>
+      <c r="H191" s="91"/>
+      <c r="I191" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J191" s="92"/>
+      <c r="K191" s="89"/>
+      <c r="L191" s="91"/>
+      <c r="M191" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N191" s="89"/>
+      <c r="O191" s="88"/>
+      <c r="P191" s="87"/>
+      <c r="Q191" s="86"/>
+      <c r="R191" s="86"/>
+    </row>
+    <row r="192" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="90"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="90"/>
+      <c r="D192" s="92"/>
+      <c r="E192" s="93"/>
+      <c r="F192" s="92"/>
+      <c r="G192" s="89"/>
+      <c r="H192" s="91"/>
+      <c r="I192" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J192" s="92"/>
+      <c r="K192" s="89"/>
+      <c r="L192" s="91"/>
+      <c r="M192" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N192" s="89"/>
+      <c r="O192" s="88"/>
+      <c r="P192" s="87"/>
+      <c r="Q192" s="86"/>
+      <c r="R192" s="86"/>
+    </row>
+    <row r="193" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="90"/>
+      <c r="B193" s="93"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="92"/>
+      <c r="E193" s="93"/>
+      <c r="F193" s="92"/>
+      <c r="G193" s="89"/>
+      <c r="H193" s="91"/>
+      <c r="I193" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J193" s="92"/>
+      <c r="K193" s="89"/>
+      <c r="L193" s="91"/>
+      <c r="M193" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N193" s="89"/>
+      <c r="O193" s="88"/>
+      <c r="P193" s="87"/>
+      <c r="Q193" s="86"/>
+      <c r="R193" s="86"/>
+    </row>
+    <row r="194" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="90"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="90"/>
+      <c r="D194" s="92"/>
+      <c r="E194" s="93"/>
+      <c r="F194" s="92"/>
+      <c r="G194" s="89"/>
+      <c r="H194" s="91"/>
+      <c r="I194" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J194" s="92"/>
+      <c r="K194" s="89"/>
+      <c r="L194" s="91"/>
+      <c r="M194" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N194" s="89"/>
+      <c r="O194" s="88"/>
+      <c r="P194" s="87"/>
+      <c r="Q194" s="86"/>
+      <c r="R194" s="86"/>
+    </row>
+    <row r="195" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="90"/>
+      <c r="B195" s="93"/>
+      <c r="C195" s="90"/>
+      <c r="D195" s="92"/>
+      <c r="E195" s="93"/>
+      <c r="F195" s="92"/>
+      <c r="G195" s="89"/>
+      <c r="H195" s="91"/>
+      <c r="I195" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J195" s="92"/>
+      <c r="K195" s="89"/>
+      <c r="L195" s="91"/>
+      <c r="M195" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N195" s="89"/>
+      <c r="O195" s="88"/>
+      <c r="P195" s="87"/>
+      <c r="Q195" s="86"/>
+      <c r="R195" s="86"/>
+    </row>
+    <row r="196" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="90"/>
+      <c r="B196" s="93"/>
+      <c r="C196" s="90"/>
+      <c r="D196" s="92"/>
+      <c r="E196" s="93"/>
+      <c r="F196" s="92"/>
+      <c r="G196" s="89"/>
+      <c r="H196" s="91"/>
+      <c r="I196" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J196" s="92"/>
+      <c r="K196" s="89"/>
+      <c r="L196" s="91"/>
+      <c r="M196" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N196" s="89"/>
+      <c r="O196" s="88"/>
+      <c r="P196" s="87"/>
+      <c r="Q196" s="86"/>
+      <c r="R196" s="86"/>
+    </row>
+    <row r="197" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="90"/>
+      <c r="B197" s="93"/>
+      <c r="C197" s="90"/>
+      <c r="D197" s="92"/>
+      <c r="E197" s="93"/>
+      <c r="F197" s="92"/>
+      <c r="G197" s="89"/>
+      <c r="H197" s="91"/>
+      <c r="I197" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J197" s="92"/>
+      <c r="K197" s="89"/>
+      <c r="L197" s="91"/>
+      <c r="M197" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N197" s="89"/>
+      <c r="O197" s="88"/>
+      <c r="P197" s="87"/>
+      <c r="Q197" s="86"/>
+      <c r="R197" s="86"/>
+    </row>
+    <row r="198" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="90"/>
+      <c r="B198" s="93"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="92"/>
+      <c r="E198" s="93"/>
+      <c r="F198" s="92"/>
+      <c r="G198" s="89"/>
+      <c r="H198" s="91"/>
+      <c r="I198" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J198" s="92"/>
+      <c r="K198" s="89"/>
+      <c r="L198" s="91"/>
+      <c r="M198" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N198" s="89"/>
+      <c r="O198" s="88"/>
+      <c r="P198" s="87"/>
+      <c r="Q198" s="86"/>
+      <c r="R198" s="86"/>
+    </row>
+    <row r="199" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="90"/>
+      <c r="B199" s="93"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="92"/>
+      <c r="E199" s="93"/>
+      <c r="F199" s="92"/>
+      <c r="G199" s="89"/>
+      <c r="H199" s="91"/>
+      <c r="I199" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J199" s="92"/>
+      <c r="K199" s="89"/>
+      <c r="L199" s="91"/>
+      <c r="M199" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N199" s="89"/>
+      <c r="O199" s="88"/>
+      <c r="P199" s="87"/>
+      <c r="Q199" s="86"/>
+      <c r="R199" s="86"/>
+    </row>
+    <row r="200" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="90"/>
+      <c r="B200" s="93"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="93"/>
+      <c r="F200" s="92"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="91"/>
+      <c r="I200" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J200" s="92"/>
+      <c r="K200" s="89"/>
+      <c r="L200" s="91"/>
+      <c r="M200" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N200" s="89"/>
+      <c r="O200" s="88"/>
+      <c r="P200" s="87"/>
+      <c r="Q200" s="86"/>
+      <c r="R200" s="86"/>
+    </row>
+    <row r="201" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="90"/>
+      <c r="B201" s="93"/>
+      <c r="C201" s="90"/>
+      <c r="D201" s="92"/>
+      <c r="E201" s="93"/>
+      <c r="F201" s="92"/>
+      <c r="G201" s="89"/>
+      <c r="H201" s="91"/>
+      <c r="I201" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J201" s="92"/>
+      <c r="K201" s="89"/>
+      <c r="L201" s="91"/>
+      <c r="M201" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N201" s="89"/>
+      <c r="O201" s="88"/>
+      <c r="P201" s="87"/>
+      <c r="Q201" s="86"/>
+      <c r="R201" s="86"/>
+    </row>
+    <row r="202" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="90"/>
+      <c r="B202" s="93"/>
+      <c r="C202" s="90"/>
+      <c r="D202" s="92"/>
+      <c r="E202" s="93"/>
+      <c r="F202" s="92"/>
+      <c r="G202" s="89"/>
+      <c r="H202" s="91"/>
+      <c r="I202" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J202" s="92"/>
+      <c r="K202" s="89"/>
+      <c r="L202" s="91"/>
+      <c r="M202" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N202" s="89"/>
+      <c r="O202" s="88"/>
+      <c r="P202" s="87"/>
+      <c r="Q202" s="86"/>
+      <c r="R202" s="86"/>
+    </row>
+    <row r="203" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="90"/>
+      <c r="B203" s="93"/>
+      <c r="C203" s="90"/>
+      <c r="D203" s="92"/>
+      <c r="E203" s="93"/>
+      <c r="F203" s="92"/>
+      <c r="G203" s="89"/>
+      <c r="H203" s="91"/>
+      <c r="I203" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J203" s="92"/>
+      <c r="K203" s="89"/>
+      <c r="L203" s="91"/>
+      <c r="M203" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N203" s="89"/>
+      <c r="O203" s="88"/>
+      <c r="P203" s="87"/>
+      <c r="Q203" s="86"/>
+      <c r="R203" s="86"/>
+    </row>
+    <row r="204" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="90"/>
+      <c r="B204" s="93"/>
+      <c r="C204" s="90"/>
+      <c r="D204" s="92"/>
+      <c r="E204" s="93"/>
+      <c r="F204" s="92"/>
+      <c r="G204" s="89"/>
+      <c r="H204" s="91"/>
+      <c r="I204" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J204" s="92"/>
+      <c r="K204" s="89"/>
+      <c r="L204" s="91"/>
+      <c r="M204" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N204" s="89"/>
+      <c r="O204" s="88"/>
+      <c r="P204" s="87"/>
+      <c r="Q204" s="86"/>
+      <c r="R204" s="86"/>
+    </row>
+    <row r="205" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="90"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="90"/>
+      <c r="D205" s="92"/>
+      <c r="E205" s="93"/>
+      <c r="F205" s="92"/>
+      <c r="G205" s="89"/>
+      <c r="H205" s="91"/>
+      <c r="I205" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J205" s="92"/>
+      <c r="K205" s="89"/>
+      <c r="L205" s="91"/>
+      <c r="M205" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N205" s="89"/>
+      <c r="O205" s="88"/>
+      <c r="P205" s="87"/>
+      <c r="Q205" s="86"/>
+      <c r="R205" s="86"/>
+    </row>
+    <row r="206" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="90"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="90"/>
+      <c r="D206" s="92"/>
+      <c r="E206" s="93"/>
+      <c r="F206" s="92"/>
+      <c r="G206" s="89"/>
+      <c r="H206" s="91"/>
+      <c r="I206" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J206" s="92"/>
+      <c r="K206" s="89"/>
+      <c r="L206" s="91"/>
+      <c r="M206" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N206" s="89"/>
+      <c r="O206" s="88"/>
+      <c r="P206" s="87"/>
+      <c r="Q206" s="86"/>
+      <c r="R206" s="86"/>
+    </row>
+    <row r="207" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="90"/>
+      <c r="B207" s="93"/>
+      <c r="C207" s="90"/>
+      <c r="D207" s="92"/>
+      <c r="E207" s="93"/>
+      <c r="F207" s="92"/>
+      <c r="G207" s="89"/>
+      <c r="H207" s="91"/>
+      <c r="I207" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J207" s="92"/>
+      <c r="K207" s="89"/>
+      <c r="L207" s="91"/>
+      <c r="M207" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N207" s="89"/>
+      <c r="O207" s="88"/>
+      <c r="P207" s="87"/>
+      <c r="Q207" s="86"/>
+      <c r="R207" s="86"/>
+    </row>
+    <row r="208" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="90"/>
+      <c r="B208" s="93"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="92"/>
+      <c r="E208" s="93"/>
+      <c r="F208" s="92"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="91"/>
+      <c r="I208" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J208" s="92"/>
+      <c r="K208" s="89"/>
+      <c r="L208" s="91"/>
+      <c r="M208" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N208" s="89"/>
+      <c r="O208" s="88"/>
+      <c r="P208" s="87"/>
+      <c r="Q208" s="86"/>
+      <c r="R208" s="86"/>
+    </row>
+    <row r="209" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="90"/>
+      <c r="B209" s="93"/>
+      <c r="C209" s="90"/>
+      <c r="D209" s="92"/>
+      <c r="E209" s="93"/>
+      <c r="F209" s="92"/>
+      <c r="G209" s="89"/>
+      <c r="H209" s="91"/>
+      <c r="I209" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J209" s="92"/>
+      <c r="K209" s="89"/>
+      <c r="L209" s="91"/>
+      <c r="M209" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N209" s="89"/>
+      <c r="O209" s="88"/>
+      <c r="P209" s="87"/>
+      <c r="Q209" s="86"/>
+      <c r="R209" s="86"/>
+    </row>
+    <row r="210" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="90"/>
+      <c r="B210" s="93"/>
+      <c r="C210" s="90"/>
+      <c r="D210" s="92"/>
+      <c r="E210" s="93"/>
+      <c r="F210" s="92"/>
+      <c r="G210" s="89"/>
+      <c r="H210" s="91"/>
+      <c r="I210" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J210" s="92"/>
+      <c r="K210" s="89"/>
+      <c r="L210" s="91"/>
+      <c r="M210" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N210" s="89"/>
+      <c r="O210" s="88"/>
+      <c r="P210" s="87"/>
+      <c r="Q210" s="86"/>
+      <c r="R210" s="86"/>
+    </row>
+    <row r="211" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="90"/>
+      <c r="B211" s="93"/>
+      <c r="C211" s="90"/>
+      <c r="D211" s="92"/>
+      <c r="E211" s="93"/>
+      <c r="F211" s="92"/>
+      <c r="G211" s="89"/>
+      <c r="H211" s="91"/>
+      <c r="I211" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J211" s="92"/>
+      <c r="K211" s="89"/>
+      <c r="L211" s="91"/>
+      <c r="M211" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N211" s="89"/>
+      <c r="O211" s="88"/>
+      <c r="P211" s="87"/>
+      <c r="Q211" s="86"/>
+      <c r="R211" s="86"/>
+    </row>
+    <row r="212" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="90"/>
+      <c r="B212" s="93"/>
+      <c r="C212" s="90"/>
+      <c r="D212" s="92"/>
+      <c r="E212" s="93"/>
+      <c r="F212" s="92"/>
+      <c r="G212" s="89"/>
+      <c r="H212" s="91"/>
+      <c r="I212" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J212" s="92"/>
+      <c r="K212" s="89"/>
+      <c r="L212" s="91"/>
+      <c r="M212" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N212" s="89"/>
+      <c r="O212" s="88"/>
+      <c r="P212" s="87"/>
+      <c r="Q212" s="86"/>
+      <c r="R212" s="86"/>
+    </row>
+    <row r="213" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="90"/>
+      <c r="B213" s="93"/>
+      <c r="C213" s="90"/>
+      <c r="D213" s="92"/>
+      <c r="E213" s="93"/>
+      <c r="F213" s="92"/>
+      <c r="G213" s="89"/>
+      <c r="H213" s="91"/>
+      <c r="I213" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J213" s="92"/>
+      <c r="K213" s="89"/>
+      <c r="L213" s="91"/>
+      <c r="M213" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N213" s="89"/>
+      <c r="O213" s="88"/>
+      <c r="P213" s="87"/>
+      <c r="Q213" s="86"/>
+      <c r="R213" s="86"/>
+    </row>
+    <row r="214" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="90"/>
+      <c r="B214" s="93"/>
+      <c r="C214" s="90"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="93"/>
+      <c r="F214" s="92"/>
+      <c r="G214" s="89"/>
+      <c r="H214" s="91"/>
+      <c r="I214" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J214" s="92"/>
+      <c r="K214" s="89"/>
+      <c r="L214" s="91"/>
+      <c r="M214" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N214" s="89"/>
+      <c r="O214" s="88"/>
+      <c r="P214" s="87"/>
+      <c r="Q214" s="86"/>
+      <c r="R214" s="86"/>
+    </row>
+    <row r="215" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="90"/>
+      <c r="B215" s="93"/>
+      <c r="C215" s="90"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="93"/>
+      <c r="F215" s="92"/>
+      <c r="G215" s="89"/>
+      <c r="H215" s="91"/>
+      <c r="I215" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J215" s="92"/>
+      <c r="K215" s="89"/>
+      <c r="L215" s="91"/>
+      <c r="M215" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N215" s="89"/>
+      <c r="O215" s="88"/>
+      <c r="P215" s="87"/>
+      <c r="Q215" s="86"/>
+      <c r="R215" s="86"/>
+    </row>
+    <row r="216" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="90"/>
+      <c r="B216" s="93"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="92"/>
+      <c r="E216" s="93"/>
+      <c r="F216" s="92"/>
+      <c r="G216" s="89"/>
+      <c r="H216" s="91"/>
+      <c r="I216" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J216" s="92"/>
+      <c r="K216" s="89"/>
+      <c r="L216" s="91"/>
+      <c r="M216" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N216" s="89"/>
+      <c r="O216" s="88"/>
+      <c r="P216" s="87"/>
+      <c r="Q216" s="86"/>
+      <c r="R216" s="86"/>
+    </row>
+    <row r="217" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="90"/>
+      <c r="B217" s="93"/>
+      <c r="C217" s="90"/>
+      <c r="D217" s="92"/>
+      <c r="E217" s="93"/>
+      <c r="F217" s="92"/>
+      <c r="G217" s="89"/>
+      <c r="H217" s="91"/>
+      <c r="I217" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J217" s="92"/>
+      <c r="K217" s="89"/>
+      <c r="L217" s="91"/>
+      <c r="M217" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N217" s="89"/>
+      <c r="O217" s="88"/>
+      <c r="P217" s="87"/>
+      <c r="Q217" s="86"/>
+      <c r="R217" s="86"/>
+    </row>
+    <row r="218" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="90"/>
+      <c r="B218" s="93"/>
+      <c r="C218" s="90"/>
+      <c r="D218" s="92"/>
+      <c r="E218" s="93"/>
+      <c r="F218" s="92"/>
+      <c r="G218" s="89"/>
+      <c r="H218" s="91"/>
+      <c r="I218" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J218" s="92"/>
+      <c r="K218" s="89"/>
+      <c r="L218" s="91"/>
+      <c r="M218" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N218" s="89"/>
+      <c r="O218" s="88"/>
+      <c r="P218" s="87"/>
+      <c r="Q218" s="86"/>
+      <c r="R218" s="86"/>
+    </row>
+    <row r="219" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="90"/>
+      <c r="B219" s="93"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="92"/>
+      <c r="E219" s="93"/>
+      <c r="F219" s="92"/>
+      <c r="G219" s="89"/>
+      <c r="H219" s="91"/>
+      <c r="I219" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J219" s="92"/>
+      <c r="K219" s="89"/>
+      <c r="L219" s="91"/>
+      <c r="M219" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N219" s="89"/>
+      <c r="O219" s="88"/>
+      <c r="P219" s="87"/>
+      <c r="Q219" s="86"/>
+      <c r="R219" s="86"/>
+    </row>
+    <row r="220" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="90"/>
+      <c r="B220" s="93"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="92"/>
+      <c r="E220" s="93"/>
+      <c r="F220" s="92"/>
+      <c r="G220" s="89"/>
+      <c r="H220" s="91"/>
+      <c r="I220" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J220" s="92"/>
+      <c r="K220" s="89"/>
+      <c r="L220" s="91"/>
+      <c r="M220" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N220" s="89"/>
+      <c r="O220" s="88"/>
+      <c r="P220" s="87"/>
+      <c r="Q220" s="86"/>
+      <c r="R220" s="86"/>
+    </row>
+    <row r="221" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="90"/>
+      <c r="B221" s="93"/>
+      <c r="C221" s="90"/>
+      <c r="D221" s="92"/>
+      <c r="E221" s="93"/>
+      <c r="F221" s="92"/>
+      <c r="G221" s="89"/>
+      <c r="H221" s="91"/>
+      <c r="I221" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J221" s="92"/>
+      <c r="K221" s="89"/>
+      <c r="L221" s="91"/>
+      <c r="M221" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N221" s="89"/>
+      <c r="O221" s="88"/>
+      <c r="P221" s="87"/>
+      <c r="Q221" s="86"/>
+      <c r="R221" s="86"/>
+    </row>
+    <row r="222" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="90"/>
+      <c r="B222" s="93"/>
+      <c r="C222" s="90"/>
+      <c r="D222" s="92"/>
+      <c r="E222" s="93"/>
+      <c r="F222" s="92"/>
+      <c r="G222" s="89"/>
+      <c r="H222" s="91"/>
+      <c r="I222" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J222" s="92"/>
+      <c r="K222" s="89"/>
+      <c r="L222" s="91"/>
+      <c r="M222" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N222" s="89"/>
+      <c r="O222" s="88"/>
+      <c r="P222" s="87"/>
+      <c r="Q222" s="86"/>
+      <c r="R222" s="86"/>
+    </row>
+    <row r="223" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="90"/>
+      <c r="B223" s="93"/>
+      <c r="C223" s="90"/>
+      <c r="D223" s="92"/>
+      <c r="E223" s="93"/>
+      <c r="F223" s="92"/>
+      <c r="G223" s="89"/>
+      <c r="H223" s="91"/>
+      <c r="I223" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J223" s="92"/>
+      <c r="K223" s="89"/>
+      <c r="L223" s="91"/>
+      <c r="M223" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N223" s="89"/>
+      <c r="O223" s="88"/>
+      <c r="P223" s="87"/>
+      <c r="Q223" s="86"/>
+      <c r="R223" s="86"/>
+    </row>
+    <row r="224" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="90"/>
+      <c r="B224" s="93"/>
+      <c r="C224" s="90"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="93"/>
+      <c r="F224" s="92"/>
+      <c r="G224" s="89"/>
+      <c r="H224" s="91"/>
+      <c r="I224" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J224" s="92"/>
+      <c r="K224" s="89"/>
+      <c r="L224" s="91"/>
+      <c r="M224" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N224" s="89"/>
+      <c r="O224" s="88"/>
+      <c r="P224" s="87"/>
+      <c r="Q224" s="86"/>
+      <c r="R224" s="86"/>
+    </row>
+    <row r="225" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="90"/>
+      <c r="B225" s="93"/>
+      <c r="C225" s="90"/>
+      <c r="D225" s="92"/>
+      <c r="E225" s="93"/>
+      <c r="F225" s="92"/>
+      <c r="G225" s="89"/>
+      <c r="H225" s="91"/>
+      <c r="I225" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J225" s="92"/>
+      <c r="K225" s="89"/>
+      <c r="L225" s="91"/>
+      <c r="M225" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N225" s="89"/>
+      <c r="O225" s="88"/>
+      <c r="P225" s="87"/>
+      <c r="Q225" s="86"/>
+      <c r="R225" s="86"/>
+    </row>
+    <row r="226" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="90"/>
+      <c r="B226" s="93"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="92"/>
+      <c r="E226" s="93"/>
+      <c r="F226" s="92"/>
+      <c r="G226" s="89"/>
+      <c r="H226" s="91"/>
+      <c r="I226" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J226" s="92"/>
+      <c r="K226" s="89"/>
+      <c r="L226" s="91"/>
+      <c r="M226" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N226" s="89"/>
+      <c r="O226" s="88"/>
+      <c r="P226" s="87"/>
+      <c r="Q226" s="86"/>
+      <c r="R226" s="86"/>
+    </row>
+    <row r="227" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="90"/>
+      <c r="B227" s="93"/>
+      <c r="C227" s="90"/>
+      <c r="D227" s="92"/>
+      <c r="E227" s="93"/>
+      <c r="F227" s="92"/>
+      <c r="G227" s="89"/>
+      <c r="H227" s="91"/>
+      <c r="I227" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J227" s="92"/>
+      <c r="K227" s="89"/>
+      <c r="L227" s="91"/>
+      <c r="M227" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N227" s="89"/>
+      <c r="O227" s="88"/>
+      <c r="P227" s="87"/>
+      <c r="Q227" s="86"/>
+      <c r="R227" s="86"/>
+    </row>
+    <row r="228" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="90"/>
+      <c r="B228" s="93"/>
+      <c r="C228" s="90"/>
+      <c r="D228" s="92"/>
+      <c r="E228" s="93"/>
+      <c r="F228" s="92"/>
+      <c r="G228" s="89"/>
+      <c r="H228" s="91"/>
+      <c r="I228" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J228" s="92"/>
+      <c r="K228" s="89"/>
+      <c r="L228" s="91"/>
+      <c r="M228" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N228" s="89"/>
+      <c r="O228" s="88"/>
+      <c r="P228" s="87"/>
+      <c r="Q228" s="86"/>
+      <c r="R228" s="86"/>
+    </row>
+    <row r="229" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="90"/>
+      <c r="B229" s="93"/>
+      <c r="C229" s="90"/>
+      <c r="D229" s="92"/>
+      <c r="E229" s="93"/>
+      <c r="F229" s="92"/>
+      <c r="G229" s="89"/>
+      <c r="H229" s="91"/>
+      <c r="I229" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J229" s="92"/>
+      <c r="K229" s="89"/>
+      <c r="L229" s="91"/>
+      <c r="M229" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N229" s="89"/>
+      <c r="O229" s="88"/>
+      <c r="P229" s="87"/>
+      <c r="Q229" s="86"/>
+      <c r="R229" s="86"/>
+    </row>
+    <row r="230" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="90"/>
+      <c r="B230" s="93"/>
+      <c r="C230" s="90"/>
+      <c r="D230" s="92"/>
+      <c r="E230" s="93"/>
+      <c r="F230" s="92"/>
+      <c r="G230" s="89"/>
+      <c r="H230" s="91"/>
+      <c r="I230" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J230" s="92"/>
+      <c r="K230" s="89"/>
+      <c r="L230" s="91"/>
+      <c r="M230" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N230" s="89"/>
+      <c r="O230" s="88"/>
+      <c r="P230" s="87"/>
+      <c r="Q230" s="86"/>
+      <c r="R230" s="86"/>
+    </row>
+    <row r="231" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="90"/>
+      <c r="B231" s="93"/>
+      <c r="C231" s="90"/>
+      <c r="D231" s="92"/>
+      <c r="E231" s="93"/>
+      <c r="F231" s="92"/>
+      <c r="G231" s="89"/>
+      <c r="H231" s="91"/>
+      <c r="I231" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J231" s="92"/>
+      <c r="K231" s="89"/>
+      <c r="L231" s="91"/>
+      <c r="M231" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N231" s="89"/>
+      <c r="O231" s="88"/>
+      <c r="P231" s="87"/>
+      <c r="Q231" s="86"/>
+      <c r="R231" s="86"/>
+    </row>
+    <row r="232" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="90"/>
+      <c r="B232" s="93"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="92"/>
+      <c r="E232" s="93"/>
+      <c r="F232" s="92"/>
+      <c r="G232" s="89"/>
+      <c r="H232" s="91"/>
+      <c r="I232" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J232" s="92"/>
+      <c r="K232" s="89"/>
+      <c r="L232" s="91"/>
+      <c r="M232" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N232" s="89"/>
+      <c r="O232" s="88"/>
+      <c r="P232" s="87"/>
+      <c r="Q232" s="86"/>
+      <c r="R232" s="86"/>
+    </row>
+    <row r="233" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="90"/>
+      <c r="B233" s="93"/>
+      <c r="C233" s="90"/>
+      <c r="D233" s="92"/>
+      <c r="E233" s="93"/>
+      <c r="F233" s="92"/>
+      <c r="G233" s="89"/>
+      <c r="H233" s="91"/>
+      <c r="I233" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J233" s="92"/>
+      <c r="K233" s="89"/>
+      <c r="L233" s="91"/>
+      <c r="M233" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N233" s="89"/>
+      <c r="O233" s="88"/>
+      <c r="P233" s="87"/>
+      <c r="Q233" s="86"/>
+      <c r="R233" s="86"/>
+    </row>
+    <row r="234" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="90"/>
+      <c r="B234" s="93"/>
+      <c r="C234" s="90"/>
+      <c r="D234" s="92"/>
+      <c r="E234" s="93"/>
+      <c r="F234" s="92"/>
+      <c r="G234" s="89"/>
+      <c r="H234" s="91"/>
+      <c r="I234" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J234" s="92"/>
+      <c r="K234" s="89"/>
+      <c r="L234" s="91"/>
+      <c r="M234" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N234" s="89"/>
+      <c r="O234" s="88"/>
+      <c r="P234" s="87"/>
+      <c r="Q234" s="86"/>
+      <c r="R234" s="86"/>
+    </row>
+    <row r="235" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="90"/>
+      <c r="B235" s="93"/>
+      <c r="C235" s="90"/>
+      <c r="D235" s="92"/>
+      <c r="E235" s="93"/>
+      <c r="F235" s="92"/>
+      <c r="G235" s="89"/>
+      <c r="H235" s="91"/>
+      <c r="I235" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J235" s="92"/>
+      <c r="K235" s="89"/>
+      <c r="L235" s="91"/>
+      <c r="M235" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N235" s="89"/>
+      <c r="O235" s="88"/>
+      <c r="P235" s="87"/>
+      <c r="Q235" s="86"/>
+      <c r="R235" s="86"/>
+    </row>
+    <row r="236" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="90"/>
+      <c r="B236" s="93"/>
+      <c r="C236" s="90"/>
+      <c r="D236" s="92"/>
+      <c r="E236" s="93"/>
+      <c r="F236" s="92"/>
+      <c r="G236" s="89"/>
+      <c r="H236" s="91"/>
+      <c r="I236" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J236" s="92"/>
+      <c r="K236" s="89"/>
+      <c r="L236" s="91"/>
+      <c r="M236" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N236" s="89"/>
+      <c r="O236" s="88"/>
+      <c r="P236" s="87"/>
+      <c r="Q236" s="86"/>
+      <c r="R236" s="86"/>
+    </row>
+    <row r="237" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="90"/>
+      <c r="B237" s="93"/>
+      <c r="C237" s="90"/>
+      <c r="D237" s="92"/>
+      <c r="E237" s="93"/>
+      <c r="F237" s="92"/>
+      <c r="G237" s="89"/>
+      <c r="H237" s="91"/>
+      <c r="I237" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J237" s="92"/>
+      <c r="K237" s="89"/>
+      <c r="L237" s="91"/>
+      <c r="M237" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N237" s="89"/>
+      <c r="O237" s="88"/>
+      <c r="P237" s="87"/>
+      <c r="Q237" s="86"/>
+      <c r="R237" s="86"/>
+    </row>
+    <row r="238" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="90"/>
+      <c r="B238" s="93"/>
+      <c r="C238" s="90"/>
+      <c r="D238" s="92"/>
+      <c r="E238" s="93"/>
+      <c r="F238" s="92"/>
+      <c r="G238" s="89"/>
+      <c r="H238" s="91"/>
+      <c r="I238" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J238" s="92"/>
+      <c r="K238" s="89"/>
+      <c r="L238" s="91"/>
+      <c r="M238" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N238" s="89"/>
+      <c r="O238" s="88"/>
+      <c r="P238" s="87"/>
+      <c r="Q238" s="86"/>
+      <c r="R238" s="86"/>
+    </row>
+    <row r="239" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="90"/>
+      <c r="B239" s="93"/>
+      <c r="C239" s="90"/>
+      <c r="D239" s="92"/>
+      <c r="E239" s="93"/>
+      <c r="F239" s="92"/>
+      <c r="G239" s="89"/>
+      <c r="H239" s="91"/>
+      <c r="I239" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J239" s="92"/>
+      <c r="K239" s="89"/>
+      <c r="L239" s="91"/>
+      <c r="M239" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N239" s="89"/>
+      <c r="O239" s="88"/>
+      <c r="P239" s="87"/>
+      <c r="Q239" s="86"/>
+      <c r="R239" s="86"/>
+    </row>
+    <row r="240" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="90"/>
+      <c r="B240" s="93"/>
+      <c r="C240" s="90"/>
+      <c r="D240" s="92"/>
+      <c r="E240" s="93"/>
+      <c r="F240" s="92"/>
+      <c r="G240" s="89"/>
+      <c r="H240" s="91"/>
+      <c r="I240" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J240" s="92"/>
+      <c r="K240" s="89"/>
+      <c r="L240" s="91"/>
+      <c r="M240" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N240" s="89"/>
+      <c r="O240" s="88"/>
+      <c r="P240" s="87"/>
+      <c r="Q240" s="86"/>
+      <c r="R240" s="86"/>
+    </row>
+    <row r="241" spans="1:18" s="85" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="90"/>
+      <c r="B241" s="93"/>
+      <c r="C241" s="90"/>
+      <c r="D241" s="92"/>
+      <c r="E241" s="93"/>
+      <c r="F241" s="92"/>
+      <c r="G241" s="89"/>
+      <c r="H241" s="91"/>
+      <c r="I241" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J241" s="92"/>
+      <c r="K241" s="89"/>
+      <c r="L241" s="91"/>
+      <c r="M241" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="N241" s="89"/>
+      <c r="O241" s="88"/>
+      <c r="P241" s="87"/>
+      <c r="Q241" s="86"/>
+      <c r="R241" s="86"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="A18:P23"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="J14:P14"/>
+  </mergeCells>
+  <pageMargins left="0.62992125984252001" right="0.23622047244093999" top="0.35433070866142002" bottom="0.55118110236219997" header="0.11811023622047" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P de &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:DI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,10 +7643,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="70"/>
       <c r="M2" s="71"/>
       <c r="N2" s="1"/>
@@ -1542,10 +7655,10 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="79"/>
+      <c r="U2" s="67"/>
       <c r="V2" s="70" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
@@ -1557,10 +7670,10 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="79"/>
+      <c r="AE2" s="67"/>
       <c r="AF2" s="70" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
@@ -1572,10 +7685,10 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="63" t="s">
+      <c r="AN2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="79"/>
+      <c r="AO2" s="67"/>
       <c r="AP2" s="70" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
@@ -1587,10 +7700,10 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="63" t="s">
+      <c r="AX2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="79"/>
+      <c r="AY2" s="67"/>
       <c r="AZ2" s="70" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
@@ -1602,10 +7715,10 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="63" t="s">
+      <c r="BH2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="BI2" s="79"/>
+      <c r="BI2" s="67"/>
       <c r="BJ2" s="70" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
@@ -1617,10 +7730,10 @@
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="63" t="s">
+      <c r="BR2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="79"/>
+      <c r="BS2" s="67"/>
       <c r="BT2" s="70" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
@@ -1632,10 +7745,10 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="63" t="s">
+      <c r="CB2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="79"/>
+      <c r="CC2" s="67"/>
       <c r="CD2" s="70" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
@@ -1647,10 +7760,10 @@
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="63" t="s">
+      <c r="CL2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="CM2" s="79"/>
+      <c r="CM2" s="67"/>
       <c r="CN2" s="70" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
@@ -1662,10 +7775,10 @@
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="63" t="s">
+      <c r="CV2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="CW2" s="79"/>
+      <c r="CW2" s="67"/>
       <c r="CX2" s="70" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
@@ -1677,10 +7790,10 @@
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="63" t="s">
+      <c r="DF2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="DG2" s="79"/>
+      <c r="DG2" s="67"/>
       <c r="DH2" s="70" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
@@ -1697,8 +7810,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="72"/>
       <c r="M3" s="73"/>
       <c r="N3" s="1"/>
@@ -1707,8 +7820,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="80"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
       <c r="V3" s="72" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1720,8 +7833,8 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="80"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
       <c r="AF3" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1733,8 +7846,8 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="80"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="69"/>
       <c r="AP3" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1746,8 +7859,8 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="80"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="69"/>
       <c r="AZ3" s="72" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1759,8 +7872,8 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="80"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="69"/>
       <c r="BJ3" s="72" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1772,8 +7885,8 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="80"/>
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="69"/>
       <c r="BT3" s="72" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1785,8 +7898,8 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="80"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="69"/>
       <c r="CD3" s="72" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1798,8 +7911,8 @@
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="65"/>
-      <c r="CM3" s="80"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="69"/>
       <c r="CN3" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1811,8 +7924,8 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="65"/>
-      <c r="CW3" s="80"/>
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="69"/>
       <c r="CX3" s="72" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -1824,8 +7937,8 @@
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="65"/>
-      <c r="DG3" s="80"/>
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="69"/>
       <c r="DH3" s="72" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1843,214 +7956,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="7"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="67" t="str">
+      <c r="Q4" s="74" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="67"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="69" t="str">
+      <c r="U4" s="75" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="69"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="67" t="str">
+      <c r="AA4" s="74" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="67"/>
+      <c r="AB4" s="74"/>
       <c r="AC4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="69" t="str">
+      <c r="AE4" s="75" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="69"/>
+      <c r="AF4" s="75"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="67" t="str">
+      <c r="AK4" s="74" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="67"/>
+      <c r="AL4" s="74"/>
       <c r="AM4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="69" t="str">
+      <c r="AO4" s="75" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="69"/>
+      <c r="AP4" s="75"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="67" t="str">
+      <c r="AU4" s="74" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="67"/>
+      <c r="AV4" s="74"/>
       <c r="AW4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="69" t="str">
+      <c r="AY4" s="75" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="69"/>
+      <c r="AZ4" s="75"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="67" t="str">
+      <c r="BE4" s="74" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="67"/>
+      <c r="BF4" s="74"/>
       <c r="BG4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="69" t="str">
+      <c r="BI4" s="75" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="69"/>
+      <c r="BJ4" s="75"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="67" t="str">
+      <c r="BO4" s="74" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="67"/>
+      <c r="BP4" s="74"/>
       <c r="BQ4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="69" t="str">
+      <c r="BS4" s="75" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="69"/>
+      <c r="BT4" s="75"/>
       <c r="BU4" s="7"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="67" t="str">
+      <c r="BY4" s="74" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="67"/>
+      <c r="BZ4" s="74"/>
       <c r="CA4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="69" t="str">
+      <c r="CC4" s="75" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="69"/>
+      <c r="CD4" s="75"/>
       <c r="CE4" s="7"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="67" t="str">
+      <c r="CI4" s="74" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="67"/>
+      <c r="CJ4" s="74"/>
       <c r="CK4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="69" t="str">
+      <c r="CM4" s="75" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="69"/>
+      <c r="CN4" s="75"/>
       <c r="CO4" s="7"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="67" t="str">
+      <c r="CS4" s="74" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="67"/>
+      <c r="CT4" s="74"/>
       <c r="CU4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="69" t="str">
+      <c r="CW4" s="75" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="69"/>
+      <c r="CX4" s="75"/>
       <c r="CY4" s="7"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="67" t="str">
+      <c r="DC4" s="74" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="67"/>
+      <c r="DD4" s="74"/>
       <c r="DE4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="69" t="str">
+      <c r="DG4" s="75" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="69"/>
+      <c r="DH4" s="75"/>
       <c r="DI4" s="7"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,14 +8175,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="7"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
@@ -2085,11 +8198,11 @@
         <v>18</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="77" t="str">
+      <c r="U5" s="65" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="77"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
@@ -2105,11 +8218,11 @@
         <v>18</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="77" t="str">
+      <c r="AE5" s="65" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="77"/>
+      <c r="AF5" s="65"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
@@ -2125,11 +8238,11 @@
         <v>18</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="77" t="str">
+      <c r="AO5" s="65" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="77"/>
+      <c r="AP5" s="65"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
@@ -2145,11 +8258,11 @@
         <v>18</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="77" t="str">
+      <c r="AY5" s="65" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="77"/>
+      <c r="AZ5" s="65"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
@@ -2165,11 +8278,11 @@
         <v>18</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="77" t="str">
+      <c r="BI5" s="65" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="77"/>
+      <c r="BJ5" s="65"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
@@ -2185,11 +8298,11 @@
         <v>18</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="77" t="str">
+      <c r="BS5" s="65" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="77"/>
+      <c r="BT5" s="65"/>
       <c r="BU5" s="7"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
@@ -2205,11 +8318,11 @@
         <v>18</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="77" t="str">
+      <c r="CC5" s="65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="77"/>
+      <c r="CD5" s="65"/>
       <c r="CE5" s="7"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
@@ -2225,11 +8338,11 @@
         <v>18</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="77" t="str">
+      <c r="CM5" s="65" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="77"/>
+      <c r="CN5" s="65"/>
       <c r="CO5" s="7"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
@@ -2245,11 +8358,11 @@
         <v>18</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="77" t="str">
+      <c r="CW5" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="77"/>
+      <c r="CX5" s="65"/>
       <c r="CY5" s="7"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
@@ -2265,11 +8378,11 @@
         <v>18</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="77" t="str">
+      <c r="DG5" s="65" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="77"/>
+      <c r="DH5" s="65"/>
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,214 +8396,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="7"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="78" t="str">
+      <c r="Q6" s="64" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="78"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="77" t="str">
+      <c r="U6" s="65" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="77"/>
+      <c r="V6" s="65"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="78" t="str">
+      <c r="AA6" s="64" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="78"/>
+      <c r="AB6" s="64"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="77" t="str">
+      <c r="AE6" s="65" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="77"/>
+      <c r="AF6" s="65"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="78" t="str">
+      <c r="AK6" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="78"/>
+      <c r="AL6" s="64"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="77" t="str">
+      <c r="AO6" s="65" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="77"/>
+      <c r="AP6" s="65"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="78" t="str">
+      <c r="AU6" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="78"/>
+      <c r="AV6" s="64"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="77" t="str">
+      <c r="AY6" s="65" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="77"/>
+      <c r="AZ6" s="65"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="78" t="str">
+      <c r="BE6" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="78"/>
+      <c r="BF6" s="64"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="77" t="str">
+      <c r="BI6" s="65" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="77"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="78" t="str">
+      <c r="BO6" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="78"/>
+      <c r="BP6" s="64"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="77" t="str">
+      <c r="BS6" s="65" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="77"/>
+      <c r="BT6" s="65"/>
       <c r="BU6" s="7"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="78" t="str">
+      <c r="BY6" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="78"/>
+      <c r="BZ6" s="64"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="77" t="str">
+      <c r="CC6" s="65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="77"/>
+      <c r="CD6" s="65"/>
       <c r="CE6" s="7"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="78" t="str">
+      <c r="CI6" s="64" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="78"/>
+      <c r="CJ6" s="64"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="77" t="str">
+      <c r="CM6" s="65" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="77"/>
+      <c r="CN6" s="65"/>
       <c r="CO6" s="7"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="78" t="str">
+      <c r="CS6" s="64" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="78"/>
+      <c r="CT6" s="64"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="77" t="str">
+      <c r="CW6" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="77"/>
+      <c r="CX6" s="65"/>
       <c r="CY6" s="7"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="78" t="str">
+      <c r="DC6" s="64" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="78"/>
+      <c r="DD6" s="64"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="77" t="str">
+      <c r="DG6" s="65" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="77"/>
+      <c r="DH6" s="65"/>
       <c r="DI6" s="7"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,8 +10375,8 @@
       <c r="A22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -4379,8 +10492,8 @@
       <c r="A23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -5552,11 +11665,11 @@
       <c r="DI32" s="42"/>
     </row>
     <row r="33" spans="1:113" s="22" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
@@ -6585,146 +12698,146 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62" t="str">
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82" t="str">
         <f>IF(ISBLANK(D42),"",D42)</f>
         <v/>
       </c>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62" t="str">
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82" t="str">
         <f t="shared" ref="X42" si="33">IF(ISBLANK(N42),"",N42)</f>
         <v/>
       </c>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
-      <c r="AH42" s="62" t="str">
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="82"/>
+      <c r="AD42" s="82"/>
+      <c r="AE42" s="82"/>
+      <c r="AF42" s="82"/>
+      <c r="AG42" s="82"/>
+      <c r="AH42" s="82" t="str">
         <f t="shared" ref="AH42" si="34">IF(ISBLANK(X42),"",X42)</f>
         <v/>
       </c>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62" t="str">
+      <c r="AI42" s="82"/>
+      <c r="AJ42" s="82"/>
+      <c r="AK42" s="82"/>
+      <c r="AL42" s="82"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="82"/>
+      <c r="AO42" s="82"/>
+      <c r="AP42" s="82"/>
+      <c r="AQ42" s="82"/>
+      <c r="AR42" s="82" t="str">
         <f t="shared" ref="AR42" si="35">IF(ISBLANK(AH42),"",AH42)</f>
         <v/>
       </c>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
-      <c r="BA42" s="62"/>
-      <c r="BB42" s="62" t="str">
+      <c r="AS42" s="82"/>
+      <c r="AT42" s="82"/>
+      <c r="AU42" s="82"/>
+      <c r="AV42" s="82"/>
+      <c r="AW42" s="82"/>
+      <c r="AX42" s="82"/>
+      <c r="AY42" s="82"/>
+      <c r="AZ42" s="82"/>
+      <c r="BA42" s="82"/>
+      <c r="BB42" s="82" t="str">
         <f t="shared" ref="BB42" si="36">IF(ISBLANK(AR42),"",AR42)</f>
         <v/>
       </c>
-      <c r="BC42" s="62"/>
-      <c r="BD42" s="62"/>
-      <c r="BE42" s="62"/>
-      <c r="BF42" s="62"/>
-      <c r="BG42" s="62"/>
-      <c r="BH42" s="62"/>
-      <c r="BI42" s="62"/>
-      <c r="BJ42" s="62"/>
-      <c r="BK42" s="62"/>
-      <c r="BL42" s="62" t="str">
+      <c r="BC42" s="82"/>
+      <c r="BD42" s="82"/>
+      <c r="BE42" s="82"/>
+      <c r="BF42" s="82"/>
+      <c r="BG42" s="82"/>
+      <c r="BH42" s="82"/>
+      <c r="BI42" s="82"/>
+      <c r="BJ42" s="82"/>
+      <c r="BK42" s="82"/>
+      <c r="BL42" s="82" t="str">
         <f t="shared" ref="BL42" si="37">IF(ISBLANK(BB42),"",BB42)</f>
         <v/>
       </c>
-      <c r="BM42" s="62"/>
-      <c r="BN42" s="62"/>
-      <c r="BO42" s="62"/>
-      <c r="BP42" s="62"/>
-      <c r="BQ42" s="62"/>
-      <c r="BR42" s="62"/>
-      <c r="BS42" s="62"/>
-      <c r="BT42" s="62"/>
-      <c r="BU42" s="62"/>
-      <c r="BV42" s="62" t="str">
+      <c r="BM42" s="82"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="82"/>
+      <c r="BP42" s="82"/>
+      <c r="BQ42" s="82"/>
+      <c r="BR42" s="82"/>
+      <c r="BS42" s="82"/>
+      <c r="BT42" s="82"/>
+      <c r="BU42" s="82"/>
+      <c r="BV42" s="82" t="str">
         <f t="shared" ref="BV42" si="38">IF(ISBLANK(BL42),"",BL42)</f>
         <v/>
       </c>
-      <c r="BW42" s="62"/>
-      <c r="BX42" s="62"/>
-      <c r="BY42" s="62"/>
-      <c r="BZ42" s="62"/>
-      <c r="CA42" s="62"/>
-      <c r="CB42" s="62"/>
-      <c r="CC42" s="62"/>
-      <c r="CD42" s="62"/>
-      <c r="CE42" s="62"/>
-      <c r="CF42" s="62" t="str">
+      <c r="BW42" s="82"/>
+      <c r="BX42" s="82"/>
+      <c r="BY42" s="82"/>
+      <c r="BZ42" s="82"/>
+      <c r="CA42" s="82"/>
+      <c r="CB42" s="82"/>
+      <c r="CC42" s="82"/>
+      <c r="CD42" s="82"/>
+      <c r="CE42" s="82"/>
+      <c r="CF42" s="82" t="str">
         <f t="shared" ref="CF42" si="39">IF(ISBLANK(BV42),"",BV42)</f>
         <v/>
       </c>
-      <c r="CG42" s="62"/>
-      <c r="CH42" s="62"/>
-      <c r="CI42" s="62"/>
-      <c r="CJ42" s="62"/>
-      <c r="CK42" s="62"/>
-      <c r="CL42" s="62"/>
-      <c r="CM42" s="62"/>
-      <c r="CN42" s="62"/>
-      <c r="CO42" s="62"/>
-      <c r="CP42" s="62" t="str">
+      <c r="CG42" s="82"/>
+      <c r="CH42" s="82"/>
+      <c r="CI42" s="82"/>
+      <c r="CJ42" s="82"/>
+      <c r="CK42" s="82"/>
+      <c r="CL42" s="82"/>
+      <c r="CM42" s="82"/>
+      <c r="CN42" s="82"/>
+      <c r="CO42" s="82"/>
+      <c r="CP42" s="82" t="str">
         <f t="shared" ref="CP42" si="40">IF(ISBLANK(CF42),"",CF42)</f>
         <v/>
       </c>
-      <c r="CQ42" s="62"/>
-      <c r="CR42" s="62"/>
-      <c r="CS42" s="62"/>
-      <c r="CT42" s="62"/>
-      <c r="CU42" s="62"/>
-      <c r="CV42" s="62"/>
-      <c r="CW42" s="62"/>
-      <c r="CX42" s="62"/>
-      <c r="CY42" s="62"/>
-      <c r="CZ42" s="62" t="str">
+      <c r="CQ42" s="82"/>
+      <c r="CR42" s="82"/>
+      <c r="CS42" s="82"/>
+      <c r="CT42" s="82"/>
+      <c r="CU42" s="82"/>
+      <c r="CV42" s="82"/>
+      <c r="CW42" s="82"/>
+      <c r="CX42" s="82"/>
+      <c r="CY42" s="82"/>
+      <c r="CZ42" s="82" t="str">
         <f>IF(ISBLANK(CP42),"",CP42)</f>
         <v/>
       </c>
-      <c r="DA42" s="62"/>
-      <c r="DB42" s="62"/>
-      <c r="DC42" s="62"/>
-      <c r="DD42" s="62"/>
-      <c r="DE42" s="62"/>
-      <c r="DF42" s="62"/>
-      <c r="DG42" s="62"/>
-      <c r="DH42" s="62"/>
-      <c r="DI42" s="62"/>
+      <c r="DA42" s="82"/>
+      <c r="DB42" s="82"/>
+      <c r="DC42" s="82"/>
+      <c r="DD42" s="82"/>
+      <c r="DE42" s="82"/>
+      <c r="DF42" s="82"/>
+      <c r="DG42" s="82"/>
+      <c r="DH42" s="82"/>
+      <c r="DI42" s="82"/>
     </row>
     <row r="43" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -6732,461 +12845,461 @@
         <v>45</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
-      <c r="BA43" s="62"/>
-      <c r="BB43" s="62"/>
-      <c r="BC43" s="62"/>
-      <c r="BD43" s="62"/>
-      <c r="BE43" s="62"/>
-      <c r="BF43" s="62"/>
-      <c r="BG43" s="62"/>
-      <c r="BH43" s="62"/>
-      <c r="BI43" s="62"/>
-      <c r="BJ43" s="62"/>
-      <c r="BK43" s="62"/>
-      <c r="BL43" s="62"/>
-      <c r="BM43" s="62"/>
-      <c r="BN43" s="62"/>
-      <c r="BO43" s="62"/>
-      <c r="BP43" s="62"/>
-      <c r="BQ43" s="62"/>
-      <c r="BR43" s="62"/>
-      <c r="BS43" s="62"/>
-      <c r="BT43" s="62"/>
-      <c r="BU43" s="62"/>
-      <c r="BV43" s="62"/>
-      <c r="BW43" s="62"/>
-      <c r="BX43" s="62"/>
-      <c r="BY43" s="62"/>
-      <c r="BZ43" s="62"/>
-      <c r="CA43" s="62"/>
-      <c r="CB43" s="62"/>
-      <c r="CC43" s="62"/>
-      <c r="CD43" s="62"/>
-      <c r="CE43" s="62"/>
-      <c r="CF43" s="62"/>
-      <c r="CG43" s="62"/>
-      <c r="CH43" s="62"/>
-      <c r="CI43" s="62"/>
-      <c r="CJ43" s="62"/>
-      <c r="CK43" s="62"/>
-      <c r="CL43" s="62"/>
-      <c r="CM43" s="62"/>
-      <c r="CN43" s="62"/>
-      <c r="CO43" s="62"/>
-      <c r="CP43" s="62"/>
-      <c r="CQ43" s="62"/>
-      <c r="CR43" s="62"/>
-      <c r="CS43" s="62"/>
-      <c r="CT43" s="62"/>
-      <c r="CU43" s="62"/>
-      <c r="CV43" s="62"/>
-      <c r="CW43" s="62"/>
-      <c r="CX43" s="62"/>
-      <c r="CY43" s="62"/>
-      <c r="CZ43" s="62"/>
-      <c r="DA43" s="62"/>
-      <c r="DB43" s="62"/>
-      <c r="DC43" s="62"/>
-      <c r="DD43" s="62"/>
-      <c r="DE43" s="62"/>
-      <c r="DF43" s="62"/>
-      <c r="DG43" s="62"/>
-      <c r="DH43" s="62"/>
-      <c r="DI43" s="62"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
+      <c r="AD43" s="82"/>
+      <c r="AE43" s="82"/>
+      <c r="AF43" s="82"/>
+      <c r="AG43" s="82"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="82"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="82"/>
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="82"/>
+      <c r="AS43" s="82"/>
+      <c r="AT43" s="82"/>
+      <c r="AU43" s="82"/>
+      <c r="AV43" s="82"/>
+      <c r="AW43" s="82"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="82"/>
+      <c r="BH43" s="82"/>
+      <c r="BI43" s="82"/>
+      <c r="BJ43" s="82"/>
+      <c r="BK43" s="82"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
+      <c r="BP43" s="82"/>
+      <c r="BQ43" s="82"/>
+      <c r="BR43" s="82"/>
+      <c r="BS43" s="82"/>
+      <c r="BT43" s="82"/>
+      <c r="BU43" s="82"/>
+      <c r="BV43" s="82"/>
+      <c r="BW43" s="82"/>
+      <c r="BX43" s="82"/>
+      <c r="BY43" s="82"/>
+      <c r="BZ43" s="82"/>
+      <c r="CA43" s="82"/>
+      <c r="CB43" s="82"/>
+      <c r="CC43" s="82"/>
+      <c r="CD43" s="82"/>
+      <c r="CE43" s="82"/>
+      <c r="CF43" s="82"/>
+      <c r="CG43" s="82"/>
+      <c r="CH43" s="82"/>
+      <c r="CI43" s="82"/>
+      <c r="CJ43" s="82"/>
+      <c r="CK43" s="82"/>
+      <c r="CL43" s="82"/>
+      <c r="CM43" s="82"/>
+      <c r="CN43" s="82"/>
+      <c r="CO43" s="82"/>
+      <c r="CP43" s="82"/>
+      <c r="CQ43" s="82"/>
+      <c r="CR43" s="82"/>
+      <c r="CS43" s="82"/>
+      <c r="CT43" s="82"/>
+      <c r="CU43" s="82"/>
+      <c r="CV43" s="82"/>
+      <c r="CW43" s="82"/>
+      <c r="CX43" s="82"/>
+      <c r="CY43" s="82"/>
+      <c r="CZ43" s="82"/>
+      <c r="DA43" s="82"/>
+      <c r="DB43" s="82"/>
+      <c r="DC43" s="82"/>
+      <c r="DD43" s="82"/>
+      <c r="DE43" s="82"/>
+      <c r="DF43" s="82"/>
+      <c r="DG43" s="82"/>
+      <c r="DH43" s="82"/>
+      <c r="DI43" s="82"/>
     </row>
     <row r="44" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
-      <c r="BA44" s="62"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="62"/>
-      <c r="BD44" s="62"/>
-      <c r="BE44" s="62"/>
-      <c r="BF44" s="62"/>
-      <c r="BG44" s="62"/>
-      <c r="BH44" s="62"/>
-      <c r="BI44" s="62"/>
-      <c r="BJ44" s="62"/>
-      <c r="BK44" s="62"/>
-      <c r="BL44" s="62"/>
-      <c r="BM44" s="62"/>
-      <c r="BN44" s="62"/>
-      <c r="BO44" s="62"/>
-      <c r="BP44" s="62"/>
-      <c r="BQ44" s="62"/>
-      <c r="BR44" s="62"/>
-      <c r="BS44" s="62"/>
-      <c r="BT44" s="62"/>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="62"/>
-      <c r="BW44" s="62"/>
-      <c r="BX44" s="62"/>
-      <c r="BY44" s="62"/>
-      <c r="BZ44" s="62"/>
-      <c r="CA44" s="62"/>
-      <c r="CB44" s="62"/>
-      <c r="CC44" s="62"/>
-      <c r="CD44" s="62"/>
-      <c r="CE44" s="62"/>
-      <c r="CF44" s="62"/>
-      <c r="CG44" s="62"/>
-      <c r="CH44" s="62"/>
-      <c r="CI44" s="62"/>
-      <c r="CJ44" s="62"/>
-      <c r="CK44" s="62"/>
-      <c r="CL44" s="62"/>
-      <c r="CM44" s="62"/>
-      <c r="CN44" s="62"/>
-      <c r="CO44" s="62"/>
-      <c r="CP44" s="62"/>
-      <c r="CQ44" s="62"/>
-      <c r="CR44" s="62"/>
-      <c r="CS44" s="62"/>
-      <c r="CT44" s="62"/>
-      <c r="CU44" s="62"/>
-      <c r="CV44" s="62"/>
-      <c r="CW44" s="62"/>
-      <c r="CX44" s="62"/>
-      <c r="CY44" s="62"/>
-      <c r="CZ44" s="62"/>
-      <c r="DA44" s="62"/>
-      <c r="DB44" s="62"/>
-      <c r="DC44" s="62"/>
-      <c r="DD44" s="62"/>
-      <c r="DE44" s="62"/>
-      <c r="DF44" s="62"/>
-      <c r="DG44" s="62"/>
-      <c r="DH44" s="62"/>
-      <c r="DI44" s="62"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="82"/>
+      <c r="AD44" s="82"/>
+      <c r="AE44" s="82"/>
+      <c r="AF44" s="82"/>
+      <c r="AG44" s="82"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="82"/>
+      <c r="AJ44" s="82"/>
+      <c r="AK44" s="82"/>
+      <c r="AL44" s="82"/>
+      <c r="AM44" s="82"/>
+      <c r="AN44" s="82"/>
+      <c r="AO44" s="82"/>
+      <c r="AP44" s="82"/>
+      <c r="AQ44" s="82"/>
+      <c r="AR44" s="82"/>
+      <c r="AS44" s="82"/>
+      <c r="AT44" s="82"/>
+      <c r="AU44" s="82"/>
+      <c r="AV44" s="82"/>
+      <c r="AW44" s="82"/>
+      <c r="AX44" s="82"/>
+      <c r="AY44" s="82"/>
+      <c r="AZ44" s="82"/>
+      <c r="BA44" s="82"/>
+      <c r="BB44" s="82"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="82"/>
+      <c r="BH44" s="82"/>
+      <c r="BI44" s="82"/>
+      <c r="BJ44" s="82"/>
+      <c r="BK44" s="82"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
+      <c r="BP44" s="82"/>
+      <c r="BQ44" s="82"/>
+      <c r="BR44" s="82"/>
+      <c r="BS44" s="82"/>
+      <c r="BT44" s="82"/>
+      <c r="BU44" s="82"/>
+      <c r="BV44" s="82"/>
+      <c r="BW44" s="82"/>
+      <c r="BX44" s="82"/>
+      <c r="BY44" s="82"/>
+      <c r="BZ44" s="82"/>
+      <c r="CA44" s="82"/>
+      <c r="CB44" s="82"/>
+      <c r="CC44" s="82"/>
+      <c r="CD44" s="82"/>
+      <c r="CE44" s="82"/>
+      <c r="CF44" s="82"/>
+      <c r="CG44" s="82"/>
+      <c r="CH44" s="82"/>
+      <c r="CI44" s="82"/>
+      <c r="CJ44" s="82"/>
+      <c r="CK44" s="82"/>
+      <c r="CL44" s="82"/>
+      <c r="CM44" s="82"/>
+      <c r="CN44" s="82"/>
+      <c r="CO44" s="82"/>
+      <c r="CP44" s="82"/>
+      <c r="CQ44" s="82"/>
+      <c r="CR44" s="82"/>
+      <c r="CS44" s="82"/>
+      <c r="CT44" s="82"/>
+      <c r="CU44" s="82"/>
+      <c r="CV44" s="82"/>
+      <c r="CW44" s="82"/>
+      <c r="CX44" s="82"/>
+      <c r="CY44" s="82"/>
+      <c r="CZ44" s="82"/>
+      <c r="DA44" s="82"/>
+      <c r="DB44" s="82"/>
+      <c r="DC44" s="82"/>
+      <c r="DD44" s="82"/>
+      <c r="DE44" s="82"/>
+      <c r="DF44" s="82"/>
+      <c r="DG44" s="82"/>
+      <c r="DH44" s="82"/>
+      <c r="DI44" s="82"/>
     </row>
     <row r="45" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
-      <c r="BA45" s="62"/>
-      <c r="BB45" s="62"/>
-      <c r="BC45" s="62"/>
-      <c r="BD45" s="62"/>
-      <c r="BE45" s="62"/>
-      <c r="BF45" s="62"/>
-      <c r="BG45" s="62"/>
-      <c r="BH45" s="62"/>
-      <c r="BI45" s="62"/>
-      <c r="BJ45" s="62"/>
-      <c r="BK45" s="62"/>
-      <c r="BL45" s="62"/>
-      <c r="BM45" s="62"/>
-      <c r="BN45" s="62"/>
-      <c r="BO45" s="62"/>
-      <c r="BP45" s="62"/>
-      <c r="BQ45" s="62"/>
-      <c r="BR45" s="62"/>
-      <c r="BS45" s="62"/>
-      <c r="BT45" s="62"/>
-      <c r="BU45" s="62"/>
-      <c r="BV45" s="62"/>
-      <c r="BW45" s="62"/>
-      <c r="BX45" s="62"/>
-      <c r="BY45" s="62"/>
-      <c r="BZ45" s="62"/>
-      <c r="CA45" s="62"/>
-      <c r="CB45" s="62"/>
-      <c r="CC45" s="62"/>
-      <c r="CD45" s="62"/>
-      <c r="CE45" s="62"/>
-      <c r="CF45" s="62"/>
-      <c r="CG45" s="62"/>
-      <c r="CH45" s="62"/>
-      <c r="CI45" s="62"/>
-      <c r="CJ45" s="62"/>
-      <c r="CK45" s="62"/>
-      <c r="CL45" s="62"/>
-      <c r="CM45" s="62"/>
-      <c r="CN45" s="62"/>
-      <c r="CO45" s="62"/>
-      <c r="CP45" s="62"/>
-      <c r="CQ45" s="62"/>
-      <c r="CR45" s="62"/>
-      <c r="CS45" s="62"/>
-      <c r="CT45" s="62"/>
-      <c r="CU45" s="62"/>
-      <c r="CV45" s="62"/>
-      <c r="CW45" s="62"/>
-      <c r="CX45" s="62"/>
-      <c r="CY45" s="62"/>
-      <c r="CZ45" s="62"/>
-      <c r="DA45" s="62"/>
-      <c r="DB45" s="62"/>
-      <c r="DC45" s="62"/>
-      <c r="DD45" s="62"/>
-      <c r="DE45" s="62"/>
-      <c r="DF45" s="62"/>
-      <c r="DG45" s="62"/>
-      <c r="DH45" s="62"/>
-      <c r="DI45" s="62"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="82"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="82"/>
+      <c r="AJ45" s="82"/>
+      <c r="AK45" s="82"/>
+      <c r="AL45" s="82"/>
+      <c r="AM45" s="82"/>
+      <c r="AN45" s="82"/>
+      <c r="AO45" s="82"/>
+      <c r="AP45" s="82"/>
+      <c r="AQ45" s="82"/>
+      <c r="AR45" s="82"/>
+      <c r="AS45" s="82"/>
+      <c r="AT45" s="82"/>
+      <c r="AU45" s="82"/>
+      <c r="AV45" s="82"/>
+      <c r="AW45" s="82"/>
+      <c r="AX45" s="82"/>
+      <c r="AY45" s="82"/>
+      <c r="AZ45" s="82"/>
+      <c r="BA45" s="82"/>
+      <c r="BB45" s="82"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="82"/>
+      <c r="BH45" s="82"/>
+      <c r="BI45" s="82"/>
+      <c r="BJ45" s="82"/>
+      <c r="BK45" s="82"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
+      <c r="BP45" s="82"/>
+      <c r="BQ45" s="82"/>
+      <c r="BR45" s="82"/>
+      <c r="BS45" s="82"/>
+      <c r="BT45" s="82"/>
+      <c r="BU45" s="82"/>
+      <c r="BV45" s="82"/>
+      <c r="BW45" s="82"/>
+      <c r="BX45" s="82"/>
+      <c r="BY45" s="82"/>
+      <c r="BZ45" s="82"/>
+      <c r="CA45" s="82"/>
+      <c r="CB45" s="82"/>
+      <c r="CC45" s="82"/>
+      <c r="CD45" s="82"/>
+      <c r="CE45" s="82"/>
+      <c r="CF45" s="82"/>
+      <c r="CG45" s="82"/>
+      <c r="CH45" s="82"/>
+      <c r="CI45" s="82"/>
+      <c r="CJ45" s="82"/>
+      <c r="CK45" s="82"/>
+      <c r="CL45" s="82"/>
+      <c r="CM45" s="82"/>
+      <c r="CN45" s="82"/>
+      <c r="CO45" s="82"/>
+      <c r="CP45" s="82"/>
+      <c r="CQ45" s="82"/>
+      <c r="CR45" s="82"/>
+      <c r="CS45" s="82"/>
+      <c r="CT45" s="82"/>
+      <c r="CU45" s="82"/>
+      <c r="CV45" s="82"/>
+      <c r="CW45" s="82"/>
+      <c r="CX45" s="82"/>
+      <c r="CY45" s="82"/>
+      <c r="CZ45" s="82"/>
+      <c r="DA45" s="82"/>
+      <c r="DB45" s="82"/>
+      <c r="DC45" s="82"/>
+      <c r="DD45" s="82"/>
+      <c r="DE45" s="82"/>
+      <c r="DF45" s="82"/>
+      <c r="DG45" s="82"/>
+      <c r="DH45" s="82"/>
+      <c r="DI45" s="82"/>
     </row>
     <row r="46" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="62"/>
-      <c r="AX46" s="62"/>
-      <c r="AY46" s="62"/>
-      <c r="AZ46" s="62"/>
-      <c r="BA46" s="62"/>
-      <c r="BB46" s="62"/>
-      <c r="BC46" s="62"/>
-      <c r="BD46" s="62"/>
-      <c r="BE46" s="62"/>
-      <c r="BF46" s="62"/>
-      <c r="BG46" s="62"/>
-      <c r="BH46" s="62"/>
-      <c r="BI46" s="62"/>
-      <c r="BJ46" s="62"/>
-      <c r="BK46" s="62"/>
-      <c r="BL46" s="62"/>
-      <c r="BM46" s="62"/>
-      <c r="BN46" s="62"/>
-      <c r="BO46" s="62"/>
-      <c r="BP46" s="62"/>
-      <c r="BQ46" s="62"/>
-      <c r="BR46" s="62"/>
-      <c r="BS46" s="62"/>
-      <c r="BT46" s="62"/>
-      <c r="BU46" s="62"/>
-      <c r="BV46" s="62"/>
-      <c r="BW46" s="62"/>
-      <c r="BX46" s="62"/>
-      <c r="BY46" s="62"/>
-      <c r="BZ46" s="62"/>
-      <c r="CA46" s="62"/>
-      <c r="CB46" s="62"/>
-      <c r="CC46" s="62"/>
-      <c r="CD46" s="62"/>
-      <c r="CE46" s="62"/>
-      <c r="CF46" s="62"/>
-      <c r="CG46" s="62"/>
-      <c r="CH46" s="62"/>
-      <c r="CI46" s="62"/>
-      <c r="CJ46" s="62"/>
-      <c r="CK46" s="62"/>
-      <c r="CL46" s="62"/>
-      <c r="CM46" s="62"/>
-      <c r="CN46" s="62"/>
-      <c r="CO46" s="62"/>
-      <c r="CP46" s="62"/>
-      <c r="CQ46" s="62"/>
-      <c r="CR46" s="62"/>
-      <c r="CS46" s="62"/>
-      <c r="CT46" s="62"/>
-      <c r="CU46" s="62"/>
-      <c r="CV46" s="62"/>
-      <c r="CW46" s="62"/>
-      <c r="CX46" s="62"/>
-      <c r="CY46" s="62"/>
-      <c r="CZ46" s="62"/>
-      <c r="DA46" s="62"/>
-      <c r="DB46" s="62"/>
-      <c r="DC46" s="62"/>
-      <c r="DD46" s="62"/>
-      <c r="DE46" s="62"/>
-      <c r="DF46" s="62"/>
-      <c r="DG46" s="62"/>
-      <c r="DH46" s="62"/>
-      <c r="DI46" s="62"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="82"/>
+      <c r="AF46" s="82"/>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="82"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="82"/>
+      <c r="AL46" s="82"/>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="82"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="82"/>
+      <c r="AQ46" s="82"/>
+      <c r="AR46" s="82"/>
+      <c r="AS46" s="82"/>
+      <c r="AT46" s="82"/>
+      <c r="AU46" s="82"/>
+      <c r="AV46" s="82"/>
+      <c r="AW46" s="82"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="82"/>
+      <c r="AZ46" s="82"/>
+      <c r="BA46" s="82"/>
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="82"/>
+      <c r="BH46" s="82"/>
+      <c r="BI46" s="82"/>
+      <c r="BJ46" s="82"/>
+      <c r="BK46" s="82"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
+      <c r="BP46" s="82"/>
+      <c r="BQ46" s="82"/>
+      <c r="BR46" s="82"/>
+      <c r="BS46" s="82"/>
+      <c r="BT46" s="82"/>
+      <c r="BU46" s="82"/>
+      <c r="BV46" s="82"/>
+      <c r="BW46" s="82"/>
+      <c r="BX46" s="82"/>
+      <c r="BY46" s="82"/>
+      <c r="BZ46" s="82"/>
+      <c r="CA46" s="82"/>
+      <c r="CB46" s="82"/>
+      <c r="CC46" s="82"/>
+      <c r="CD46" s="82"/>
+      <c r="CE46" s="82"/>
+      <c r="CF46" s="82"/>
+      <c r="CG46" s="82"/>
+      <c r="CH46" s="82"/>
+      <c r="CI46" s="82"/>
+      <c r="CJ46" s="82"/>
+      <c r="CK46" s="82"/>
+      <c r="CL46" s="82"/>
+      <c r="CM46" s="82"/>
+      <c r="CN46" s="82"/>
+      <c r="CO46" s="82"/>
+      <c r="CP46" s="82"/>
+      <c r="CQ46" s="82"/>
+      <c r="CR46" s="82"/>
+      <c r="CS46" s="82"/>
+      <c r="CT46" s="82"/>
+      <c r="CU46" s="82"/>
+      <c r="CV46" s="82"/>
+      <c r="CW46" s="82"/>
+      <c r="CX46" s="82"/>
+      <c r="CY46" s="82"/>
+      <c r="CZ46" s="82"/>
+      <c r="DA46" s="82"/>
+      <c r="DB46" s="82"/>
+      <c r="DC46" s="82"/>
+      <c r="DD46" s="82"/>
+      <c r="DE46" s="82"/>
+      <c r="DF46" s="82"/>
+      <c r="DG46" s="82"/>
+      <c r="DH46" s="82"/>
+      <c r="DI46" s="82"/>
     </row>
     <row r="47" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -7194,146 +13307,146 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62" t="str">
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82" t="str">
         <f>IF(ISBLANK(D47),"",D47)</f>
         <v/>
       </c>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62" t="str">
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82" t="str">
         <f t="shared" ref="X47" si="41">IF(ISBLANK(N47),"",N47)</f>
         <v/>
       </c>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62" t="str">
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="82" t="str">
         <f t="shared" ref="AH47" si="42">IF(ISBLANK(X47),"",X47)</f>
         <v/>
       </c>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62" t="str">
+      <c r="AI47" s="82"/>
+      <c r="AJ47" s="82"/>
+      <c r="AK47" s="82"/>
+      <c r="AL47" s="82"/>
+      <c r="AM47" s="82"/>
+      <c r="AN47" s="82"/>
+      <c r="AO47" s="82"/>
+      <c r="AP47" s="82"/>
+      <c r="AQ47" s="82"/>
+      <c r="AR47" s="82" t="str">
         <f t="shared" ref="AR47" si="43">IF(ISBLANK(AH47),"",AH47)</f>
         <v/>
       </c>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="62"/>
-      <c r="AX47" s="62"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="62"/>
-      <c r="BA47" s="62"/>
-      <c r="BB47" s="62" t="str">
+      <c r="AS47" s="82"/>
+      <c r="AT47" s="82"/>
+      <c r="AU47" s="82"/>
+      <c r="AV47" s="82"/>
+      <c r="AW47" s="82"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="82"/>
+      <c r="AZ47" s="82"/>
+      <c r="BA47" s="82"/>
+      <c r="BB47" s="82" t="str">
         <f t="shared" ref="BB47" si="44">IF(ISBLANK(AR47),"",AR47)</f>
         <v/>
       </c>
-      <c r="BC47" s="62"/>
-      <c r="BD47" s="62"/>
-      <c r="BE47" s="62"/>
-      <c r="BF47" s="62"/>
-      <c r="BG47" s="62"/>
-      <c r="BH47" s="62"/>
-      <c r="BI47" s="62"/>
-      <c r="BJ47" s="62"/>
-      <c r="BK47" s="62"/>
-      <c r="BL47" s="62" t="str">
+      <c r="BC47" s="82"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="82"/>
+      <c r="BH47" s="82"/>
+      <c r="BI47" s="82"/>
+      <c r="BJ47" s="82"/>
+      <c r="BK47" s="82"/>
+      <c r="BL47" s="82" t="str">
         <f t="shared" ref="BL47" si="45">IF(ISBLANK(BB47),"",BB47)</f>
         <v/>
       </c>
-      <c r="BM47" s="62"/>
-      <c r="BN47" s="62"/>
-      <c r="BO47" s="62"/>
-      <c r="BP47" s="62"/>
-      <c r="BQ47" s="62"/>
-      <c r="BR47" s="62"/>
-      <c r="BS47" s="62"/>
-      <c r="BT47" s="62"/>
-      <c r="BU47" s="62"/>
-      <c r="BV47" s="62" t="str">
+      <c r="BM47" s="82"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="82"/>
+      <c r="BP47" s="82"/>
+      <c r="BQ47" s="82"/>
+      <c r="BR47" s="82"/>
+      <c r="BS47" s="82"/>
+      <c r="BT47" s="82"/>
+      <c r="BU47" s="82"/>
+      <c r="BV47" s="82" t="str">
         <f t="shared" ref="BV47" si="46">IF(ISBLANK(BL47),"",BL47)</f>
         <v/>
       </c>
-      <c r="BW47" s="62"/>
-      <c r="BX47" s="62"/>
-      <c r="BY47" s="62"/>
-      <c r="BZ47" s="62"/>
-      <c r="CA47" s="62"/>
-      <c r="CB47" s="62"/>
-      <c r="CC47" s="62"/>
-      <c r="CD47" s="62"/>
-      <c r="CE47" s="62"/>
-      <c r="CF47" s="62" t="str">
+      <c r="BW47" s="82"/>
+      <c r="BX47" s="82"/>
+      <c r="BY47" s="82"/>
+      <c r="BZ47" s="82"/>
+      <c r="CA47" s="82"/>
+      <c r="CB47" s="82"/>
+      <c r="CC47" s="82"/>
+      <c r="CD47" s="82"/>
+      <c r="CE47" s="82"/>
+      <c r="CF47" s="82" t="str">
         <f t="shared" ref="CF47" si="47">IF(ISBLANK(BV47),"",BV47)</f>
         <v/>
       </c>
-      <c r="CG47" s="62"/>
-      <c r="CH47" s="62"/>
-      <c r="CI47" s="62"/>
-      <c r="CJ47" s="62"/>
-      <c r="CK47" s="62"/>
-      <c r="CL47" s="62"/>
-      <c r="CM47" s="62"/>
-      <c r="CN47" s="62"/>
-      <c r="CO47" s="62"/>
-      <c r="CP47" s="62" t="str">
+      <c r="CG47" s="82"/>
+      <c r="CH47" s="82"/>
+      <c r="CI47" s="82"/>
+      <c r="CJ47" s="82"/>
+      <c r="CK47" s="82"/>
+      <c r="CL47" s="82"/>
+      <c r="CM47" s="82"/>
+      <c r="CN47" s="82"/>
+      <c r="CO47" s="82"/>
+      <c r="CP47" s="82" t="str">
         <f t="shared" ref="CP47" si="48">IF(ISBLANK(CF47),"",CF47)</f>
         <v/>
       </c>
-      <c r="CQ47" s="62"/>
-      <c r="CR47" s="62"/>
-      <c r="CS47" s="62"/>
-      <c r="CT47" s="62"/>
-      <c r="CU47" s="62"/>
-      <c r="CV47" s="62"/>
-      <c r="CW47" s="62"/>
-      <c r="CX47" s="62"/>
-      <c r="CY47" s="62"/>
-      <c r="CZ47" s="62" t="str">
+      <c r="CQ47" s="82"/>
+      <c r="CR47" s="82"/>
+      <c r="CS47" s="82"/>
+      <c r="CT47" s="82"/>
+      <c r="CU47" s="82"/>
+      <c r="CV47" s="82"/>
+      <c r="CW47" s="82"/>
+      <c r="CX47" s="82"/>
+      <c r="CY47" s="82"/>
+      <c r="CZ47" s="82" t="str">
         <f t="shared" ref="CZ47" si="49">IF(ISBLANK(CP47),"",CP47)</f>
         <v/>
       </c>
-      <c r="DA47" s="62"/>
-      <c r="DB47" s="62"/>
-      <c r="DC47" s="62"/>
-      <c r="DD47" s="62"/>
-      <c r="DE47" s="62"/>
-      <c r="DF47" s="62"/>
-      <c r="DG47" s="62"/>
-      <c r="DH47" s="62"/>
-      <c r="DI47" s="62"/>
+      <c r="DA47" s="82"/>
+      <c r="DB47" s="82"/>
+      <c r="DC47" s="82"/>
+      <c r="DD47" s="82"/>
+      <c r="DE47" s="82"/>
+      <c r="DF47" s="82"/>
+      <c r="DG47" s="82"/>
+      <c r="DH47" s="82"/>
+      <c r="DI47" s="82"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -7341,525 +13454,495 @@
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="62"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="62"/>
-      <c r="AN48" s="62"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="62"/>
-      <c r="AU48" s="62"/>
-      <c r="AV48" s="62"/>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62"/>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="62"/>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="62"/>
-      <c r="BG48" s="62"/>
-      <c r="BH48" s="62"/>
-      <c r="BI48" s="62"/>
-      <c r="BJ48" s="62"/>
-      <c r="BK48" s="62"/>
-      <c r="BL48" s="62"/>
-      <c r="BM48" s="62"/>
-      <c r="BN48" s="62"/>
-      <c r="BO48" s="62"/>
-      <c r="BP48" s="62"/>
-      <c r="BQ48" s="62"/>
-      <c r="BR48" s="62"/>
-      <c r="BS48" s="62"/>
-      <c r="BT48" s="62"/>
-      <c r="BU48" s="62"/>
-      <c r="BV48" s="62"/>
-      <c r="BW48" s="62"/>
-      <c r="BX48" s="62"/>
-      <c r="BY48" s="62"/>
-      <c r="BZ48" s="62"/>
-      <c r="CA48" s="62"/>
-      <c r="CB48" s="62"/>
-      <c r="CC48" s="62"/>
-      <c r="CD48" s="62"/>
-      <c r="CE48" s="62"/>
-      <c r="CF48" s="62"/>
-      <c r="CG48" s="62"/>
-      <c r="CH48" s="62"/>
-      <c r="CI48" s="62"/>
-      <c r="CJ48" s="62"/>
-      <c r="CK48" s="62"/>
-      <c r="CL48" s="62"/>
-      <c r="CM48" s="62"/>
-      <c r="CN48" s="62"/>
-      <c r="CO48" s="62"/>
-      <c r="CP48" s="62"/>
-      <c r="CQ48" s="62"/>
-      <c r="CR48" s="62"/>
-      <c r="CS48" s="62"/>
-      <c r="CT48" s="62"/>
-      <c r="CU48" s="62"/>
-      <c r="CV48" s="62"/>
-      <c r="CW48" s="62"/>
-      <c r="CX48" s="62"/>
-      <c r="CY48" s="62"/>
-      <c r="CZ48" s="62"/>
-      <c r="DA48" s="62"/>
-      <c r="DB48" s="62"/>
-      <c r="DC48" s="62"/>
-      <c r="DD48" s="62"/>
-      <c r="DE48" s="62"/>
-      <c r="DF48" s="62"/>
-      <c r="DG48" s="62"/>
-      <c r="DH48" s="62"/>
-      <c r="DI48" s="62"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="82"/>
+      <c r="AF48" s="82"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="82"/>
+      <c r="AL48" s="82"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="82"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="82"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="82"/>
+      <c r="AT48" s="82"/>
+      <c r="AU48" s="82"/>
+      <c r="AV48" s="82"/>
+      <c r="AW48" s="82"/>
+      <c r="AX48" s="82"/>
+      <c r="AY48" s="82"/>
+      <c r="AZ48" s="82"/>
+      <c r="BA48" s="82"/>
+      <c r="BB48" s="82"/>
+      <c r="BC48" s="82"/>
+      <c r="BD48" s="82"/>
+      <c r="BE48" s="82"/>
+      <c r="BF48" s="82"/>
+      <c r="BG48" s="82"/>
+      <c r="BH48" s="82"/>
+      <c r="BI48" s="82"/>
+      <c r="BJ48" s="82"/>
+      <c r="BK48" s="82"/>
+      <c r="BL48" s="82"/>
+      <c r="BM48" s="82"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="82"/>
+      <c r="BP48" s="82"/>
+      <c r="BQ48" s="82"/>
+      <c r="BR48" s="82"/>
+      <c r="BS48" s="82"/>
+      <c r="BT48" s="82"/>
+      <c r="BU48" s="82"/>
+      <c r="BV48" s="82"/>
+      <c r="BW48" s="82"/>
+      <c r="BX48" s="82"/>
+      <c r="BY48" s="82"/>
+      <c r="BZ48" s="82"/>
+      <c r="CA48" s="82"/>
+      <c r="CB48" s="82"/>
+      <c r="CC48" s="82"/>
+      <c r="CD48" s="82"/>
+      <c r="CE48" s="82"/>
+      <c r="CF48" s="82"/>
+      <c r="CG48" s="82"/>
+      <c r="CH48" s="82"/>
+      <c r="CI48" s="82"/>
+      <c r="CJ48" s="82"/>
+      <c r="CK48" s="82"/>
+      <c r="CL48" s="82"/>
+      <c r="CM48" s="82"/>
+      <c r="CN48" s="82"/>
+      <c r="CO48" s="82"/>
+      <c r="CP48" s="82"/>
+      <c r="CQ48" s="82"/>
+      <c r="CR48" s="82"/>
+      <c r="CS48" s="82"/>
+      <c r="CT48" s="82"/>
+      <c r="CU48" s="82"/>
+      <c r="CV48" s="82"/>
+      <c r="CW48" s="82"/>
+      <c r="CX48" s="82"/>
+      <c r="CY48" s="82"/>
+      <c r="CZ48" s="82"/>
+      <c r="DA48" s="82"/>
+      <c r="DB48" s="82"/>
+      <c r="DC48" s="82"/>
+      <c r="DD48" s="82"/>
+      <c r="DE48" s="82"/>
+      <c r="DF48" s="82"/>
+      <c r="DG48" s="82"/>
+      <c r="DH48" s="82"/>
+      <c r="DI48" s="82"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="62"/>
-      <c r="AM49" s="62"/>
-      <c r="AN49" s="62"/>
-      <c r="AO49" s="62"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="62"/>
-      <c r="AT49" s="62"/>
-      <c r="AU49" s="62"/>
-      <c r="AV49" s="62"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="62"/>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="62"/>
-      <c r="BA49" s="62"/>
-      <c r="BB49" s="62"/>
-      <c r="BC49" s="62"/>
-      <c r="BD49" s="62"/>
-      <c r="BE49" s="62"/>
-      <c r="BF49" s="62"/>
-      <c r="BG49" s="62"/>
-      <c r="BH49" s="62"/>
-      <c r="BI49" s="62"/>
-      <c r="BJ49" s="62"/>
-      <c r="BK49" s="62"/>
-      <c r="BL49" s="62"/>
-      <c r="BM49" s="62"/>
-      <c r="BN49" s="62"/>
-      <c r="BO49" s="62"/>
-      <c r="BP49" s="62"/>
-      <c r="BQ49" s="62"/>
-      <c r="BR49" s="62"/>
-      <c r="BS49" s="62"/>
-      <c r="BT49" s="62"/>
-      <c r="BU49" s="62"/>
-      <c r="BV49" s="62"/>
-      <c r="BW49" s="62"/>
-      <c r="BX49" s="62"/>
-      <c r="BY49" s="62"/>
-      <c r="BZ49" s="62"/>
-      <c r="CA49" s="62"/>
-      <c r="CB49" s="62"/>
-      <c r="CC49" s="62"/>
-      <c r="CD49" s="62"/>
-      <c r="CE49" s="62"/>
-      <c r="CF49" s="62"/>
-      <c r="CG49" s="62"/>
-      <c r="CH49" s="62"/>
-      <c r="CI49" s="62"/>
-      <c r="CJ49" s="62"/>
-      <c r="CK49" s="62"/>
-      <c r="CL49" s="62"/>
-      <c r="CM49" s="62"/>
-      <c r="CN49" s="62"/>
-      <c r="CO49" s="62"/>
-      <c r="CP49" s="62"/>
-      <c r="CQ49" s="62"/>
-      <c r="CR49" s="62"/>
-      <c r="CS49" s="62"/>
-      <c r="CT49" s="62"/>
-      <c r="CU49" s="62"/>
-      <c r="CV49" s="62"/>
-      <c r="CW49" s="62"/>
-      <c r="CX49" s="62"/>
-      <c r="CY49" s="62"/>
-      <c r="CZ49" s="62"/>
-      <c r="DA49" s="62"/>
-      <c r="DB49" s="62"/>
-      <c r="DC49" s="62"/>
-      <c r="DD49" s="62"/>
-      <c r="DE49" s="62"/>
-      <c r="DF49" s="62"/>
-      <c r="DG49" s="62"/>
-      <c r="DH49" s="62"/>
-      <c r="DI49" s="62"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="82"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="82"/>
+      <c r="AL49" s="82"/>
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="82"/>
+      <c r="AS49" s="82"/>
+      <c r="AT49" s="82"/>
+      <c r="AU49" s="82"/>
+      <c r="AV49" s="82"/>
+      <c r="AW49" s="82"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="82"/>
+      <c r="BA49" s="82"/>
+      <c r="BB49" s="82"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="82"/>
+      <c r="BH49" s="82"/>
+      <c r="BI49" s="82"/>
+      <c r="BJ49" s="82"/>
+      <c r="BK49" s="82"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
+      <c r="BP49" s="82"/>
+      <c r="BQ49" s="82"/>
+      <c r="BR49" s="82"/>
+      <c r="BS49" s="82"/>
+      <c r="BT49" s="82"/>
+      <c r="BU49" s="82"/>
+      <c r="BV49" s="82"/>
+      <c r="BW49" s="82"/>
+      <c r="BX49" s="82"/>
+      <c r="BY49" s="82"/>
+      <c r="BZ49" s="82"/>
+      <c r="CA49" s="82"/>
+      <c r="CB49" s="82"/>
+      <c r="CC49" s="82"/>
+      <c r="CD49" s="82"/>
+      <c r="CE49" s="82"/>
+      <c r="CF49" s="82"/>
+      <c r="CG49" s="82"/>
+      <c r="CH49" s="82"/>
+      <c r="CI49" s="82"/>
+      <c r="CJ49" s="82"/>
+      <c r="CK49" s="82"/>
+      <c r="CL49" s="82"/>
+      <c r="CM49" s="82"/>
+      <c r="CN49" s="82"/>
+      <c r="CO49" s="82"/>
+      <c r="CP49" s="82"/>
+      <c r="CQ49" s="82"/>
+      <c r="CR49" s="82"/>
+      <c r="CS49" s="82"/>
+      <c r="CT49" s="82"/>
+      <c r="CU49" s="82"/>
+      <c r="CV49" s="82"/>
+      <c r="CW49" s="82"/>
+      <c r="CX49" s="82"/>
+      <c r="CY49" s="82"/>
+      <c r="CZ49" s="82"/>
+      <c r="DA49" s="82"/>
+      <c r="DB49" s="82"/>
+      <c r="DC49" s="82"/>
+      <c r="DD49" s="82"/>
+      <c r="DE49" s="82"/>
+      <c r="DF49" s="82"/>
+      <c r="DG49" s="82"/>
+      <c r="DH49" s="82"/>
+      <c r="DI49" s="82"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="62"/>
-      <c r="AM50" s="62"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="62"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="62"/>
-      <c r="AX50" s="62"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="62"/>
-      <c r="BA50" s="62"/>
-      <c r="BB50" s="62"/>
-      <c r="BC50" s="62"/>
-      <c r="BD50" s="62"/>
-      <c r="BE50" s="62"/>
-      <c r="BF50" s="62"/>
-      <c r="BG50" s="62"/>
-      <c r="BH50" s="62"/>
-      <c r="BI50" s="62"/>
-      <c r="BJ50" s="62"/>
-      <c r="BK50" s="62"/>
-      <c r="BL50" s="62"/>
-      <c r="BM50" s="62"/>
-      <c r="BN50" s="62"/>
-      <c r="BO50" s="62"/>
-      <c r="BP50" s="62"/>
-      <c r="BQ50" s="62"/>
-      <c r="BR50" s="62"/>
-      <c r="BS50" s="62"/>
-      <c r="BT50" s="62"/>
-      <c r="BU50" s="62"/>
-      <c r="BV50" s="62"/>
-      <c r="BW50" s="62"/>
-      <c r="BX50" s="62"/>
-      <c r="BY50" s="62"/>
-      <c r="BZ50" s="62"/>
-      <c r="CA50" s="62"/>
-      <c r="CB50" s="62"/>
-      <c r="CC50" s="62"/>
-      <c r="CD50" s="62"/>
-      <c r="CE50" s="62"/>
-      <c r="CF50" s="62"/>
-      <c r="CG50" s="62"/>
-      <c r="CH50" s="62"/>
-      <c r="CI50" s="62"/>
-      <c r="CJ50" s="62"/>
-      <c r="CK50" s="62"/>
-      <c r="CL50" s="62"/>
-      <c r="CM50" s="62"/>
-      <c r="CN50" s="62"/>
-      <c r="CO50" s="62"/>
-      <c r="CP50" s="62"/>
-      <c r="CQ50" s="62"/>
-      <c r="CR50" s="62"/>
-      <c r="CS50" s="62"/>
-      <c r="CT50" s="62"/>
-      <c r="CU50" s="62"/>
-      <c r="CV50" s="62"/>
-      <c r="CW50" s="62"/>
-      <c r="CX50" s="62"/>
-      <c r="CY50" s="62"/>
-      <c r="CZ50" s="62"/>
-      <c r="DA50" s="62"/>
-      <c r="DB50" s="62"/>
-      <c r="DC50" s="62"/>
-      <c r="DD50" s="62"/>
-      <c r="DE50" s="62"/>
-      <c r="DF50" s="62"/>
-      <c r="DG50" s="62"/>
-      <c r="DH50" s="62"/>
-      <c r="DI50" s="62"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="82"/>
+      <c r="AE50" s="82"/>
+      <c r="AF50" s="82"/>
+      <c r="AG50" s="82"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="82"/>
+      <c r="AL50" s="82"/>
+      <c r="AM50" s="82"/>
+      <c r="AN50" s="82"/>
+      <c r="AO50" s="82"/>
+      <c r="AP50" s="82"/>
+      <c r="AQ50" s="82"/>
+      <c r="AR50" s="82"/>
+      <c r="AS50" s="82"/>
+      <c r="AT50" s="82"/>
+      <c r="AU50" s="82"/>
+      <c r="AV50" s="82"/>
+      <c r="AW50" s="82"/>
+      <c r="AX50" s="82"/>
+      <c r="AY50" s="82"/>
+      <c r="AZ50" s="82"/>
+      <c r="BA50" s="82"/>
+      <c r="BB50" s="82"/>
+      <c r="BC50" s="82"/>
+      <c r="BD50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BF50" s="82"/>
+      <c r="BG50" s="82"/>
+      <c r="BH50" s="82"/>
+      <c r="BI50" s="82"/>
+      <c r="BJ50" s="82"/>
+      <c r="BK50" s="82"/>
+      <c r="BL50" s="82"/>
+      <c r="BM50" s="82"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="82"/>
+      <c r="BP50" s="82"/>
+      <c r="BQ50" s="82"/>
+      <c r="BR50" s="82"/>
+      <c r="BS50" s="82"/>
+      <c r="BT50" s="82"/>
+      <c r="BU50" s="82"/>
+      <c r="BV50" s="82"/>
+      <c r="BW50" s="82"/>
+      <c r="BX50" s="82"/>
+      <c r="BY50" s="82"/>
+      <c r="BZ50" s="82"/>
+      <c r="CA50" s="82"/>
+      <c r="CB50" s="82"/>
+      <c r="CC50" s="82"/>
+      <c r="CD50" s="82"/>
+      <c r="CE50" s="82"/>
+      <c r="CF50" s="82"/>
+      <c r="CG50" s="82"/>
+      <c r="CH50" s="82"/>
+      <c r="CI50" s="82"/>
+      <c r="CJ50" s="82"/>
+      <c r="CK50" s="82"/>
+      <c r="CL50" s="82"/>
+      <c r="CM50" s="82"/>
+      <c r="CN50" s="82"/>
+      <c r="CO50" s="82"/>
+      <c r="CP50" s="82"/>
+      <c r="CQ50" s="82"/>
+      <c r="CR50" s="82"/>
+      <c r="CS50" s="82"/>
+      <c r="CT50" s="82"/>
+      <c r="CU50" s="82"/>
+      <c r="CV50" s="82"/>
+      <c r="CW50" s="82"/>
+      <c r="CX50" s="82"/>
+      <c r="CY50" s="82"/>
+      <c r="CZ50" s="82"/>
+      <c r="DA50" s="82"/>
+      <c r="DB50" s="82"/>
+      <c r="DC50" s="82"/>
+      <c r="DD50" s="82"/>
+      <c r="DE50" s="82"/>
+      <c r="DF50" s="82"/>
+      <c r="DG50" s="82"/>
+      <c r="DH50" s="82"/>
+      <c r="DI50" s="82"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="62"/>
-      <c r="AM51" s="62"/>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="62"/>
-      <c r="AU51" s="62"/>
-      <c r="AV51" s="62"/>
-      <c r="AW51" s="62"/>
-      <c r="AX51" s="62"/>
-      <c r="AY51" s="62"/>
-      <c r="AZ51" s="62"/>
-      <c r="BA51" s="62"/>
-      <c r="BB51" s="62"/>
-      <c r="BC51" s="62"/>
-      <c r="BD51" s="62"/>
-      <c r="BE51" s="62"/>
-      <c r="BF51" s="62"/>
-      <c r="BG51" s="62"/>
-      <c r="BH51" s="62"/>
-      <c r="BI51" s="62"/>
-      <c r="BJ51" s="62"/>
-      <c r="BK51" s="62"/>
-      <c r="BL51" s="62"/>
-      <c r="BM51" s="62"/>
-      <c r="BN51" s="62"/>
-      <c r="BO51" s="62"/>
-      <c r="BP51" s="62"/>
-      <c r="BQ51" s="62"/>
-      <c r="BR51" s="62"/>
-      <c r="BS51" s="62"/>
-      <c r="BT51" s="62"/>
-      <c r="BU51" s="62"/>
-      <c r="BV51" s="62"/>
-      <c r="BW51" s="62"/>
-      <c r="BX51" s="62"/>
-      <c r="BY51" s="62"/>
-      <c r="BZ51" s="62"/>
-      <c r="CA51" s="62"/>
-      <c r="CB51" s="62"/>
-      <c r="CC51" s="62"/>
-      <c r="CD51" s="62"/>
-      <c r="CE51" s="62"/>
-      <c r="CF51" s="62"/>
-      <c r="CG51" s="62"/>
-      <c r="CH51" s="62"/>
-      <c r="CI51" s="62"/>
-      <c r="CJ51" s="62"/>
-      <c r="CK51" s="62"/>
-      <c r="CL51" s="62"/>
-      <c r="CM51" s="62"/>
-      <c r="CN51" s="62"/>
-      <c r="CO51" s="62"/>
-      <c r="CP51" s="62"/>
-      <c r="CQ51" s="62"/>
-      <c r="CR51" s="62"/>
-      <c r="CS51" s="62"/>
-      <c r="CT51" s="62"/>
-      <c r="CU51" s="62"/>
-      <c r="CV51" s="62"/>
-      <c r="CW51" s="62"/>
-      <c r="CX51" s="62"/>
-      <c r="CY51" s="62"/>
-      <c r="CZ51" s="62"/>
-      <c r="DA51" s="62"/>
-      <c r="DB51" s="62"/>
-      <c r="DC51" s="62"/>
-      <c r="DD51" s="62"/>
-      <c r="DE51" s="62"/>
-      <c r="DF51" s="62"/>
-      <c r="DG51" s="62"/>
-      <c r="DH51" s="62"/>
-      <c r="DI51" s="62"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="82"/>
+      <c r="AE51" s="82"/>
+      <c r="AF51" s="82"/>
+      <c r="AG51" s="82"/>
+      <c r="AH51" s="82"/>
+      <c r="AI51" s="82"/>
+      <c r="AJ51" s="82"/>
+      <c r="AK51" s="82"/>
+      <c r="AL51" s="82"/>
+      <c r="AM51" s="82"/>
+      <c r="AN51" s="82"/>
+      <c r="AO51" s="82"/>
+      <c r="AP51" s="82"/>
+      <c r="AQ51" s="82"/>
+      <c r="AR51" s="82"/>
+      <c r="AS51" s="82"/>
+      <c r="AT51" s="82"/>
+      <c r="AU51" s="82"/>
+      <c r="AV51" s="82"/>
+      <c r="AW51" s="82"/>
+      <c r="AX51" s="82"/>
+      <c r="AY51" s="82"/>
+      <c r="AZ51" s="82"/>
+      <c r="BA51" s="82"/>
+      <c r="BB51" s="82"/>
+      <c r="BC51" s="82"/>
+      <c r="BD51" s="82"/>
+      <c r="BE51" s="82"/>
+      <c r="BF51" s="82"/>
+      <c r="BG51" s="82"/>
+      <c r="BH51" s="82"/>
+      <c r="BI51" s="82"/>
+      <c r="BJ51" s="82"/>
+      <c r="BK51" s="82"/>
+      <c r="BL51" s="82"/>
+      <c r="BM51" s="82"/>
+      <c r="BN51" s="82"/>
+      <c r="BO51" s="82"/>
+      <c r="BP51" s="82"/>
+      <c r="BQ51" s="82"/>
+      <c r="BR51" s="82"/>
+      <c r="BS51" s="82"/>
+      <c r="BT51" s="82"/>
+      <c r="BU51" s="82"/>
+      <c r="BV51" s="82"/>
+      <c r="BW51" s="82"/>
+      <c r="BX51" s="82"/>
+      <c r="BY51" s="82"/>
+      <c r="BZ51" s="82"/>
+      <c r="CA51" s="82"/>
+      <c r="CB51" s="82"/>
+      <c r="CC51" s="82"/>
+      <c r="CD51" s="82"/>
+      <c r="CE51" s="82"/>
+      <c r="CF51" s="82"/>
+      <c r="CG51" s="82"/>
+      <c r="CH51" s="82"/>
+      <c r="CI51" s="82"/>
+      <c r="CJ51" s="82"/>
+      <c r="CK51" s="82"/>
+      <c r="CL51" s="82"/>
+      <c r="CM51" s="82"/>
+      <c r="CN51" s="82"/>
+      <c r="CO51" s="82"/>
+      <c r="CP51" s="82"/>
+      <c r="CQ51" s="82"/>
+      <c r="CR51" s="82"/>
+      <c r="CS51" s="82"/>
+      <c r="CT51" s="82"/>
+      <c r="CU51" s="82"/>
+      <c r="CV51" s="82"/>
+      <c r="CW51" s="82"/>
+      <c r="CX51" s="82"/>
+      <c r="CY51" s="82"/>
+      <c r="CZ51" s="82"/>
+      <c r="DA51" s="82"/>
+      <c r="DB51" s="82"/>
+      <c r="DC51" s="82"/>
+      <c r="DD51" s="82"/>
+      <c r="DE51" s="82"/>
+      <c r="DF51" s="82"/>
+      <c r="DG51" s="82"/>
+      <c r="DH51" s="82"/>
+      <c r="DI51" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AX2:AY3"/>
-    <mergeCell ref="AZ2:BA3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="CP47:CY51"/>
+    <mergeCell ref="CZ47:DI51"/>
+    <mergeCell ref="BB42:BK46"/>
+    <mergeCell ref="BL42:BU46"/>
+    <mergeCell ref="BV42:CE46"/>
+    <mergeCell ref="CF42:CO46"/>
+    <mergeCell ref="CP42:CY46"/>
+    <mergeCell ref="CZ42:DI46"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="D42:M46"/>
+    <mergeCell ref="N42:W46"/>
+    <mergeCell ref="X42:AG46"/>
+    <mergeCell ref="AH42:AQ46"/>
+    <mergeCell ref="AR42:BA46"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
@@ -7879,37 +13962,67 @@
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D42:M46"/>
-    <mergeCell ref="N42:W46"/>
-    <mergeCell ref="X42:AG46"/>
-    <mergeCell ref="AH42:AQ46"/>
-    <mergeCell ref="AR42:BA46"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="CP47:CY51"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="BB42:BK46"/>
-    <mergeCell ref="BL42:BU46"/>
-    <mergeCell ref="BV42:CE46"/>
-    <mergeCell ref="CF42:CO46"/>
-    <mergeCell ref="CP42:CY46"/>
-    <mergeCell ref="CZ42:DI46"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AX2:AY3"/>
+    <mergeCell ref="AZ2:BA3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8089,18 +14202,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8122,14 +14235,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8143,4 +14248,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>